--- a/Data/Predicted_random_forest.xlsx
+++ b/Data/Predicted_random_forest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
   <si>
     <t>SMILES</t>
   </si>
@@ -22,1153 +22,1042 @@
     <t>Predicted activity</t>
   </si>
   <si>
-    <t>CN1N=C1Sc1ccccc1</t>
-  </si>
-  <si>
-    <t>CN1CCCCCCNCNc2c(n(C)c(=O)n(C)c2=O)N1</t>
-  </si>
-  <si>
-    <t>CNCCC1CCCN(C)Nc2c(c(=O)n(C)c(=O)n2C)N1</t>
-  </si>
-  <si>
-    <t>CN1CCC(CCNC=N)=Nc2c1n(C)c(=O)n(C)c2=O</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN1CC2=C(N1)N(C)C(=O)N(C)C2</t>
-  </si>
-  <si>
-    <t>CNCNCC1CCN2C=C1N(C)C(=O)N(C)C2</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN1CC2=CN1C(=O)N(C)C(=O)N2C</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN1CC(CN(C)C(=O)NC)=CN1</t>
-  </si>
-  <si>
-    <t>COn1c(NCCN)nc2c1CN(C)C2=O</t>
-  </si>
-  <si>
-    <t>CC1C2=C(N(C)CCCCCN(C=N)NO2)N(C)C(=O)N1C</t>
-  </si>
-  <si>
-    <t>CN1C(=O)NOc2ncn(C)c2C1=O</t>
-  </si>
-  <si>
-    <t>CN1CC2=CC3N(O)C23C(=O)N(C)C1</t>
-  </si>
-  <si>
-    <t>CC1N(C)Cc2c(nc(NCCCN=O)n2C)N1C</t>
-  </si>
-  <si>
-    <t>CC1N(C)C=C(N=C(C=O)NCC=O)CN1C=O</t>
-  </si>
-  <si>
-    <t>CNC(=NC(=CC(=O)N(C)C)N(C)C=O)NCCCCCN</t>
-  </si>
-  <si>
-    <t>CN1Cc2c(nc(NCCCN=O)n2C)N(C)C1</t>
-  </si>
-  <si>
-    <t>CON(C)CCNc1nc2c(n1C)N(C)CN(C)C2=O</t>
-  </si>
-  <si>
-    <t>CON1CC2=CN(C)C1(C)C(=O)C(NCC=O)=N2</t>
-  </si>
-  <si>
-    <t>CN1C(=O)CNC(=O)c2c1nc(NCCCCN)n2C</t>
-  </si>
-  <si>
-    <t>CN(C)CCNCN(C)c1c(N)c(=O)n(C)c(=O)n1C</t>
-  </si>
-  <si>
-    <t>CNC(=Nc1cc(=O)n(C)c(=O)n1C)NCCCCCN</t>
-  </si>
-  <si>
-    <t>CCNCCCNc1nc2c(n1C)C(C)N(N=O)CN2C</t>
-  </si>
-  <si>
-    <t>CN1C(=O)NCc2nc(NCCCCCN)n(C=O)c21</t>
-  </si>
-  <si>
-    <t>CCSC1=C2N(C)C(=O)NC(=C(N)N2C)C1N(C)C</t>
-  </si>
-  <si>
-    <t>CCCSc1nc(N(C)CNC)c(CN(C)OO)n1C</t>
-  </si>
-  <si>
-    <t>Cn1c(NCCCNCCCN=O)nc2c1CNCC2=O</t>
-  </si>
-  <si>
-    <t>COC(=O)C(S)=CC(=CN(C)CCCN(C)C1=Nc2c(c(=O)n(C)c(=O)n2C)CN1)[N+](=O)[O-]</t>
-  </si>
-  <si>
-    <t>CNc1c(N(C)C(=O)N(C)C=O)nc(NCCCNCCCN)n1C</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)c2nc(NCCCN3C(=O)CCC3=O)n(C)c2n(C)c1=O</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)c2c(nc(NCCCNCCCCNCCN)n2C)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN1Cc2nc(NCCCN3C(=O)CCC3=O)[nH]c2C(=O)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>C=CCCC(S)c1c(NC)nc(NCCCN2C(=O)c3ccccc3C2=O)n1C</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)CNC(NCCCNC(=O)CSC(=S)N1CCCC1)=N2</t>
-  </si>
-  <si>
-    <t>CN1C(=O)CNc2nc(NCCCCN3C(=O)C=CC3=O)n(C)c21</t>
-  </si>
-  <si>
-    <t>CN1CC2=C(N=C(NCCCN=C3NC(=O)CS3)NC2)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)C1=NC=C(N(C)C)CN1CCN(C)C</t>
+    <t>Cn1c(NCCCN=C2NC(=O)CS2)nc2c1n(C)c(=O)n2C</t>
+  </si>
+  <si>
+    <t>CN1CN=C(NCCCN=C2NC(=O)CS2)N(C)CN(C)C1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(SC(=S)N2CCCC2)nc2c1n(C)c(=O)n2C=O</t>
+  </si>
+  <si>
+    <t>CN1Cc2c(n(C)c(=O)n(C)c2=O)C1NCC=CCCCN=N</t>
+  </si>
+  <si>
+    <t>CCN(C=O)C(=O)C=CN=C(NCCCN=C1NC(=O)CS1)N(C)C</t>
+  </si>
+  <si>
+    <t>CN1c2c(n(C)c(=O)n2C)C1Sc1nc2ccccc2[nH]1</t>
+  </si>
+  <si>
+    <t>Cn1c2c(c(=O)n(C)c1=O)CNC(NCCN1C(=O)c3ccccc3C1=O)=N2</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2[nH]c(NCCCNC(=O)CSC(=S)N3CCCC3)nc2n(C)c1=O</t>
+  </si>
+  <si>
+    <t>Cn1c2c(c(=O)n(C)c1=O)CNC2NCCNC(=O)CSC(=S)N1CCCC1</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCCN2C(=O)C=CC2=O)nc2c1n(C)c(=O)n2C</t>
+  </si>
+  <si>
+    <t>CN1C(=O)c2c1nc(NCCCN=C1NC(=O)CS1)n2C</t>
+  </si>
+  <si>
+    <t>CN1CN2C=C(C2NCCCNCCCCNCCCN=N)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)N1C=C(C=O)NC(NCCCCCCN)=NC1</t>
+  </si>
+  <si>
+    <t>O=CCN1Cn2cc(nc2SC(=S)N2CCCC2)NC1=O</t>
+  </si>
+  <si>
+    <t>CN(C(=N)NCCCCCCN)c1cn(C)c(=O)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CC1=C(N=C[NH])CNc2nc3c(c(=O)n(C)c(=O)n3C)n21</t>
+  </si>
+  <si>
+    <t>CCSC(=NC)N(C)C1=C2C1N(C)CN2OC=O</t>
+  </si>
+  <si>
+    <t>CON1C2N(C)CC(N(C)CSCC(C)C)=CN21</t>
+  </si>
+  <si>
+    <t>CCSC(=NC)N(C)C1=C2C1NC(=O)N2OCC=O</t>
+  </si>
+  <si>
+    <t>CCCn1c(CN(C)CC)nc2c(=O)n(C)c(=O)n(C)c21</t>
+  </si>
+  <si>
+    <t>CCSC1=NCC2=C(C(C)N(C)C(=O)N2C=O)N1O</t>
+  </si>
+  <si>
+    <t>CCSC(=NC)N(C)C1=C2C1NC(=O)N2OC=O</t>
+  </si>
+  <si>
+    <t>CCON1C(SCC)=NCc2[nH]c(=O)n(C)c(=O)c21</t>
+  </si>
+  <si>
+    <t>CNC=NCCNc1nc2c([nH]1)c(=O)n(C)c(=O)n2C</t>
+  </si>
+  <si>
+    <t>CCSC1=NCC2=C(C(=O)N(C)CN2)N1OCC=O</t>
+  </si>
+  <si>
+    <t>CCOON1CN(C)C2C1=C2N(C)C(=NC)SCC</t>
+  </si>
+  <si>
+    <t>CCSC1=NCc2[nH]c(=O)n(C)c(=O)c2N1CC=O</t>
+  </si>
+  <si>
+    <t>CCSC1=NCC2=C(CN(O)C(=O)N2C=O)N1C</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)C1=C(N)NN(C=O)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CON1C(=O)N(C)Cc2c1nc(NCCCCCN)n2C</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNC(=N)NC1C(=O)N(C)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CC1C(N(C)C(=N)NCCCCN)=CN(O)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CC1N(C)C(=O)c2c(nc(NCCCCN)n2C)N1OO</t>
+  </si>
+  <si>
+    <t>CN(C(=N)NCCCCCN)C1=C2N(C=O)CN2C1=O</t>
+  </si>
+  <si>
+    <t>CC(Sc1nc2[nH]c(=O)n(C)c(=O)c2n1C)N1CCCCS1</t>
+  </si>
+  <si>
+    <t>CN1CNc2nc(NCCCCN)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2c(nc(NCCCCN)n2C)n(C=O)c1=O</t>
+  </si>
+  <si>
+    <t>CON1c2nc(SCC(C)C)n(C)c2C(=O)NC1C</t>
+  </si>
+  <si>
+    <t>CC1c2c(nc(NCCCCCN)n2C)NC(=O)N1C</t>
+  </si>
+  <si>
+    <t>CC(C)CSc1nc2c(n1C)CN(C)C(=O)N2OC=O</t>
+  </si>
+  <si>
+    <t>CN1C(=O)CC2(NC=C(Nc3ccccc3N)S2)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN1C(=O)NC2=C(Nc3ccccc3N)SC(CC1C=O)N2</t>
   </si>
   <si>
     <t>Cn1c2c(c(=O)n(C)c1=O)CNC(NCCCN=C1NC(=O)CS1)=N2</t>
   </si>
   <si>
-    <t>CNC(NCCCCNC(C)=O)c1nc2c(=O)n(C)c(=O)n(C)c2n1C</t>
-  </si>
-  <si>
-    <t>CN1Cc2c(nc(NCCCN=C3NC(=O)CS3)n2C)N(C)C1=O</t>
+    <t>CCN1C(=O)CC2NC(=C(Nc3ccccc3N)S2)NC1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)CCC(=CC=O)N=CSc1nc2ccccc2n1Cc1cn(CCCN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>CNC(=Nc1cc(=O)n(C)c(=O)n1C)Sc1nc2ccccc2n1Cc1cn(CCCCCN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)C1=Nc2c(n(C)c(=O)n(C)c2=O)CN1</t>
+  </si>
+  <si>
+    <t>CC(C)CSC1=NCNC(=O)N(CC=O)CN1C</t>
+  </si>
+  <si>
+    <t>CC(C)CSC1=NCN(C)C(=O)N(C)C(=O)CN1C</t>
+  </si>
+  <si>
+    <t>CCn1c(=O)c2nc(N(C)C)[nH]c2n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CN(C=O)CC1(NCC=CCCCN=N)CN1C</t>
+  </si>
+  <si>
+    <t>CCN1CN(C)C(NCC=CCCCN=N)CNC1=O</t>
+  </si>
+  <si>
+    <t>CN(C)c1nc2c(=O)n(C)c(=O)n(C)c2n1C</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)c1nc2c(n1C)CC(=O)N(C)C2=O</t>
+  </si>
+  <si>
+    <t>CN(C=O)C(=O)C=CN=CC1SC=CC(=O)CN1C</t>
+  </si>
+  <si>
+    <t>CN(C)C1C2N=CC=CSC(CC(=S)N1C)N2C</t>
+  </si>
+  <si>
+    <t>CCN1C(=O)CN(C)C(NCC=CCCCN=N)CNC1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)C(=CC=O)N=C(SC=O)Sc1nc2ccccc2n1Cc1cn(Cc2ccccc2CN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>CCNC(=O)C(=CC=O)N=C(C=O)Sc1nc2ccccc2n1Cc1cn(Cc2ccccc2CN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>Cn1c(N=C(SC=O)Sc2nc3ccccc3n2Cc2cn(Cc3ccccc3CN=[N+]=[N-])nn2)cc(=O)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1nc(NCCN2C(=O)CCC2=O)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)NCn1c(NCCNCCCNCCN)nc(C=O)c1C=O</t>
+  </si>
+  <si>
+    <t>CN1CC(=O)N(C)C(=O)CNC2=C1SCC=CC=C2</t>
+  </si>
+  <si>
+    <t>CCSC1=NCCN(C)C(=S=O)CN1C</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCCCN)nc2c1n(C)c(=O)n2C</t>
+  </si>
+  <si>
+    <t>CCN1C(=O)CN=CN(C)CNCN(C)C1=O</t>
+  </si>
+  <si>
+    <t>CC(C)CSC1=NCN(C)C(=O)N(C)CN1C</t>
+  </si>
+  <si>
+    <t>CSC1=C2CN1C=C(CN)N2</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCCN)nc2[nH]c(=O)n(CC=O)c21</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2c(nc(SCN3CCCCS3)n2C)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CN(CSc1nc2c(c(=O)n(C)c(=O)n2C)n1C)N1CCCC1</t>
+  </si>
+  <si>
+    <t>CC(C)CSCN(C)C1=C=NC(=N)NC1=O</t>
+  </si>
+  <si>
+    <t>CN1CC=CC=CCCn2c(=O)n(C)c(=O)c3nc1n(C)c32</t>
+  </si>
+  <si>
+    <t>CCSC1=NC2NC3=C(C(=O)N(C)C2(C)N3OC)N1C</t>
+  </si>
+  <si>
+    <t>CN1CN(C)c2nc(NCCNCCN)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>CC1N(OO)C=C(N(C)C(=N)NCCCCN)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CCCCSN(C)C(=O)Sc1nc2c(n1C)CN(C)C(=O)N2C</t>
+  </si>
+  <si>
+    <t>CN(C=O)CN(C)C(=O)c1cnc(NCCCCCCN)[nH]1</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNc1nc2[nH]c(=O)n(C)c(=O)c2n1C</t>
+  </si>
+  <si>
+    <t>CN(C(=N)SC(=S)N1CCCC1)C1=CN(C=O)CNC1=O</t>
+  </si>
+  <si>
+    <t>CC1N(O)C(=O)c2c(nc(NCCCCCCN)n2C)N1C</t>
+  </si>
+  <si>
+    <t>CN(C(=N)SC(=S)N1CCCC1)C1=C2N(C=O)CN2C1=O</t>
+  </si>
+  <si>
+    <t>CCN1CN(O)C(=O)c2c1nc(NCCCCCCN)n2C</t>
+  </si>
+  <si>
+    <t>CON1CN(C)C(=O)c2c1nc(NCCCCNC(C)=O)n2C</t>
+  </si>
+  <si>
+    <t>CON1CN(C)C(=O)C2=C1C(NCCNCCCNCCN=N)N2C</t>
+  </si>
+  <si>
+    <t>CC(C)CSC(=NCN)N(C)C1=C2N(CC=O)CN2C1=O</t>
+  </si>
+  <si>
+    <t>CN1c2c(n(C)c(=O)n(C)c2=O)C1NCCN=C1NC(=O)CS1</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCCNc1nc2c(n1C)C(=O)NCN2C=O</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCNCCCNCCN)nc2c1C(=O)NCN2C=O</t>
+  </si>
+  <si>
+    <t>CN(C(=N)NCCCCNCCCN)C1=CN(C=O)CNC1=O</t>
+  </si>
+  <si>
+    <t>CCCSc1nc2cn1CN(C)CC(=O)N2</t>
+  </si>
+  <si>
+    <t>CSc1nc2c(n1C)N(C)CC(=S)N2C</t>
+  </si>
+  <si>
+    <t>CSc1nc2c(n1C)N(C)CN2C=S</t>
+  </si>
+  <si>
+    <t>CSC1=NCN(C=S)CN(C)CN1C</t>
+  </si>
+  <si>
+    <t>CCCSC1=NCN(C)CN(C)CN1C</t>
+  </si>
+  <si>
+    <t>CNC(=S)N(S)c1ncn(C)c1N(C)C</t>
+  </si>
+  <si>
+    <t>CNC(=S)N(S)CN=CN(C)CN(C)C</t>
+  </si>
+  <si>
+    <t>CSC1=NCN(C=[SH]C)CN(C)CN1C</t>
+  </si>
+  <si>
+    <t>CCCSc1nc(NC)cn1CN(C)C</t>
+  </si>
+  <si>
+    <t>CN1C=NCN(S)C(=S)N(C)CN(C)C1</t>
+  </si>
+  <si>
+    <t>CNC(=Nc1cc(=O)n(C)c(=O)n1C)SC(=S)N1CCCC1</t>
+  </si>
+  <si>
+    <t>CNC1c2c(c(=O)n(C)c(=O)n2C)N1CCCNCCCCNCCCN=N</t>
+  </si>
+  <si>
+    <t>CN(C=O)C(=O)N(C)c1cn(C)c(NCCCN2C(=O)C=CC2=O)n1</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCCN2C(=O)C=CC2=O)nc2[nH]c(=O)n(CC=O)c21</t>
+  </si>
+  <si>
+    <t>CCCn1c(=O)[nH]c2nc(NCCCN3C(=O)C=CC3=O)n(C)c21</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCCN=C2NC(=O)CS2)nc2[nH]c(=O)n(CC=O)c21</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)[nH]c2nc(NCCCN3C(=O)C4=C(CC=CC=C4)C3=O)n(C)c2c1=O</t>
+  </si>
+  <si>
+    <t>C=CC=CCC1=CC(=O)N(CCNc2nc3[nH]c(=O)n(C)c(=O)c3n2C)C1=O</t>
+  </si>
+  <si>
+    <t>COC(=O)C(S)=CC(=CN(C)CCN(C)C(N)=NC=CC=O)[N+](=O)[O-]</t>
+  </si>
+  <si>
+    <t>C=CC=CCC(=CC=O)CSc1nc2c(c(=O)n(C)c(=O)n2C)n1CN</t>
+  </si>
+  <si>
+    <t>C=CC=COC1=CC(=O)N(CCNc2nc3c(n2C)C(=O)N(C)CN3C)C1=O</t>
+  </si>
+  <si>
+    <t>CCC1=CC(=O)C(=O)N(C)C(=O)N[SH]2CC(=O)NC2=NCCNCNC=N1</t>
+  </si>
+  <si>
+    <t>C=CC=CCC(=CC=O)CSc1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
+  </si>
+  <si>
+    <t>CN1CN(C)c2nc(NCCNC(=Nc3c(C=O)c3=O)OO)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>CN[SH]1CC(=O)NC1=NCCNCN1C=NC(OC)=CC(=O)C(=O)N(C)C1</t>
+  </si>
+  <si>
+    <t>CN1C(=O)C=C(N=C(C=O)Sc2nc3ccccc3n2Cc2cn(Cc3ccc(CN=[N+]=[N-])cc3)nn2)CCC1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)CCC(=CC=O)N=CSc1nc2ccccc2n1Cc1cn(Cc2ccc(CN=[N+]=[N-])cc2)nn1</t>
+  </si>
+  <si>
+    <t>CCCON(C)CCNC(=NCNC(=O)NC)NCCCNC(=O)CSC(=S)N1CCCC1</t>
+  </si>
+  <si>
+    <t>CCCN1Cc2[nH]c(nc2NC(=O)NC)NCCC(N2C(=O)c3ccccc3C2=O)C1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C=O)CN=C(NCCCCN1C(=O)c2ccccc2C1=O)NCCN(C)O</t>
+  </si>
+  <si>
+    <t>CCCON(C)CC1NOC(NCCN2Cc3ccccc3C2=O)=NCN1C(=O)NC</t>
+  </si>
+  <si>
+    <t>CCCON(C)Cc1[nH]c(NCCNC(=O)CSC(=S)N2CCCC2)nc1NC(=O)NC</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(O)CN=C(NCCCCN1C(=O)c2ccccc2C1=O)NC1=CCN(C)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CCCN1CCNC(=NCNC(=O)NC)NCCCN(C(=O)CSC(=S)N2CCCC2)C1=O</t>
+  </si>
+  <si>
+    <t>CCn1c(=O)n(C)c2c1nc(NCCCN1C(=O)C=CC1=O)n2C</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCCN2C(=O)C=CC2=O)nc2c1n(C)c(=O)n2C=O</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCCN=C2NC(=O)CS2)nc2c1n(C=O)c(=O)n2C</t>
+  </si>
+  <si>
+    <t>CON1c2nc(NCCNCCN)n(C)c2C(=O)NC1C</t>
+  </si>
+  <si>
+    <t>CN1CNc2nc(NCCCCCN)n(C)c2C1</t>
+  </si>
+  <si>
+    <t>CC1NC(=O)N(C)C2=C(C(CCNCCNN)=N2)N1C=O</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCNCCN)nc2c1C(=O)N(O)CN2</t>
+  </si>
+  <si>
+    <t>CN1C(=O)NCN(C=O)CNCC2=CNC=CNC=NC21</t>
+  </si>
+  <si>
+    <t>CN1CN2CN=C(NCCCCN)N(C)C2C1=O</t>
+  </si>
+  <si>
+    <t>CON1CNC(=O)N(C)C2=C1CC(CCN=O)=N2</t>
+  </si>
+  <si>
+    <t>CC1Nc2nc(NCCNCCN)n(C)c2C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CCON1c2nc(SCC(C)C)n(C)c2C(=O)NC1C</t>
+  </si>
+  <si>
+    <t>CN(C=O)CNC(=O)c1cnc(NCCNCCN)n1C</t>
+  </si>
+  <si>
+    <t>Cn1c(C(=O)N2CN(C=O)C2)cnc1NCCCCCCN</t>
+  </si>
+  <si>
+    <t>CN1CN(C)c2nc(NCCn3c(=O)c4ccccoc=4c3=O)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>CN1CN(C)c2nc(NCCNC(=O)C(=CC=O)OCNC=O)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2c(nc(SCC(C=O)=CC=O)n2CN)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2c(nc(SCC(C=O)=CC=O)n2N)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CN(CNC=NC=CC=O)c1c(N)n(C)c(=O)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)[nH]c2nc(NCCN3C(=O)C4=C(CC=CC=C4)C3=O)n(C)c2c1=O</t>
+  </si>
+  <si>
+    <t>CN1CCc2[nH]c(NCCCN3C(=O)c4ccccc4C3=O)nc2C(=O)C1=O</t>
+  </si>
+  <si>
+    <t>CN1CCc2[nH]c(NCCCCN3C(=O)c4ccccc4C3=O)nc2C(=O)C1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2c(nc(NCCNC(=O)c3cc(=O)c3=O)n2C)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1nc(NCCCN2C(=O)c3ccccc3C2=O)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CN1C(=O)C(=O)C=C1N=C(CCC=O)Sc1nc2ccccc2n1Cc1cn(CCCCCCCCCCCCN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>CCCC(=NC1=CC(=O)C(=O)N(C)C1=O)Sc1nc2ccccc2n1Cc1cn(CCCCCCCCCCCCN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>CN1C(=O)C(C=O)=C1N=C(CCC=O)Sc1nc2ccccc2n1Cc1cn(CCCCCCCCCCCCN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>CN1C=NSC2=C1N(C)C(=O)N(C=CO)C2</t>
+  </si>
+  <si>
+    <t>CC(C)CSC1=NCN(C)C(=O)NC(=O)CN1C</t>
+  </si>
+  <si>
+    <t>CN1C(=O)C2=C1C(SC1=Nc3ccccc3S1=N)N2C</t>
+  </si>
+  <si>
+    <t>CN(C)C1(C2C=NC(=O)NC(=O)C2=O)N=CC=CS1</t>
+  </si>
+  <si>
+    <t>CN1C(=O)c2nc(NCCC3(N(C)C)N=CC=CS3)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNc1nc2c(c(=O)[nH]c(=O)n2CC=O)n1C</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNc1nc(CN(C)C(=O)N(C)C=O)c(C=O)[nH]1</t>
+  </si>
+  <si>
+    <t>CNCCCCCCNc1nc(C=O)c(C(=O)N(C)C=O)n1C</t>
+  </si>
+  <si>
+    <t>CN(C=O)C(=O)N(C)c1nc(NCCCCNCCCN)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNc1nc2c([nH]1)C(=O)N(C)C(=O)N(C=O)C2</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1nc(NCCCN2C(=O)C=CC2=O)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CN1CC2=CN(N=C(NCCCCNCCCN)N2C=O)C1=O</t>
+  </si>
+  <si>
+    <t>CC1N(O)C=C(N(C)C(=N)SC(=S)N2CCCC2)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CCn1c(NCCCNC(C)=O)nc2[nH]c(=O)n(C)c(=O)c21</t>
+  </si>
+  <si>
+    <t>CNC1=C(N(C)CN(C)OC=O)NC(NCCN=C2NCCS2)N1C</t>
+  </si>
+  <si>
+    <t>CCCn1c(NCCCNC(C)=O)nc2[nH]c(=O)[nH]c(=O)c21</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)c1nc2c(n1OC=O)N(C)CNCC2=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCCCNCCCN)=Nn2cc1c(=O)n(C)c2=O</t>
+  </si>
+  <si>
+    <t>CC1C2=CN(N=C(NCCCCNCCCN)N2C=O)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNCN(C)C1=C2N=C1NC(=O)N2</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNc1nc2c(n1C)CN(C)C(=O)N2</t>
+  </si>
+  <si>
+    <t>CNC1(C)c2nc(NCCCCNCCCN)n(C=O)c2C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CN1C=NCN(C)C(=S)N(C)C(=S)C1</t>
+  </si>
+  <si>
+    <t>CSN1CN=CN(C)CN(C)C1=O</t>
+  </si>
+  <si>
+    <t>CCCSc1nc(NCC)cn1CN(C)C</t>
+  </si>
+  <si>
+    <t>CN1C=NCN(C=S)C(=O)N(C)C1</t>
+  </si>
+  <si>
+    <t>CCSN1CN=CN(C)CN(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN1C=Nc2c(n(C)c(=O)n(C)c2=O)N=C1</t>
+  </si>
+  <si>
+    <t>CN1CN2C=C(CN)NC3=C2SCC3N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CCSC1=NCC(=O)N(C)C(=O)CN1C</t>
+  </si>
+  <si>
+    <t>CN(C)C1=C(NCC(=O)NC=O)C=CC=CCS1</t>
+  </si>
+  <si>
+    <t>CC(C)CSC(=NCN(C)C(=O)N(C)C=O)N(C)C</t>
+  </si>
+  <si>
+    <t>C[SH]=c1n(C)c(=O)c2nc(N(C)C)[nH]c2n1C</t>
+  </si>
+  <si>
+    <t>CN1CCNC2=C(SCC=CC=C2)N(C)CC1</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)CN=C(SCC(C)C)N(C)C</t>
+  </si>
+  <si>
+    <t>CSC1=C2NC(CN)=CN1C1C2N(C)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CNCCCCCCNc1nc(C=O)c(CN(C)C(=O)NC)n1C</t>
+  </si>
+  <si>
+    <t>CNCCCCCCNc1nc(C=O)c(CNC(=O)N(C)C=O)n1C</t>
+  </si>
+  <si>
+    <t>CNC(=Nc1cc(=O)n(C)c(=O)n1C=O)NCCCNC(C)=O</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNC(N)=NC1=CC(=O)N(C)C(=O)N(C=O)C1</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCNc1nc2c(c(=O)n(C)c(=O)n2C=O)n1C</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1nc(NCCCN2C(=O)CCC2=O)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCCCNCCCCNCCCN=N)c1cc(=O)n(C)c(=O)n1C</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)C(=O)C=CN=C(SC(=S)N1CCCC1)N(C)C</t>
+  </si>
+  <si>
+    <t>CN1Cc2c(n(C)c(=O)n(C)c2=O)C1NCCCNCCCCNCCCN=N</t>
+  </si>
+  <si>
+    <t>CCn1c2c(n(C)c1=O)N(C)C2NCCCNCCCCNCCCN=N</t>
+  </si>
+  <si>
+    <t>CCN1C(=O)N(C)CN2C=C1C2NCCCNCCCCNCCCN=N</t>
+  </si>
+  <si>
+    <t>CCn1c(=O)cc(N=C(SC(=S)N2CCCC2)N(C)C)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CCN1C(=O)c2c1nc(NCCCN=C1NC(=O)CS1)n2C</t>
+  </si>
+  <si>
+    <t>CC(C)CSC1=Nc2c(n(C)c(=O)[nH]c2=O)N(C)CN1C</t>
+  </si>
+  <si>
+    <t>Cn1c(SC(=S)N2CCCC2)nc2c1n(C)c(=O)n2C</t>
+  </si>
+  <si>
+    <t>CCN1CN=C(NCCCN=C2NC(=O)CS2)N(C)CC1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1cn(C)c(SC(=S)N2CCCC2)n1</t>
+  </si>
+  <si>
+    <t>CN1CN=C(NCc2c[nH]cn2)N(C)CC(=O)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN1Cc2c(n(C)c(=O)n(C=O)c2=O)C1NCC=CCCCN=N</t>
+  </si>
+  <si>
+    <t>CCNC(=O)N(CN=C(NCc1c[nH]cn1)N(C)C)OC</t>
+  </si>
+  <si>
+    <t>CCN1CN(C)C(NCc2c[nH]cn2)=NCN(OC)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(=NCN(C)C(=O)N(C)C=O)NCc1c[nH]cn1</t>
+  </si>
+  <si>
+    <t>CN(C)C(=NC=CC(=O)N(C)C=O)NCCCN=C1NC(=O)CS1</t>
+  </si>
+  <si>
+    <t>Cc1nc(NCCNCCCNCCN)n2c1C(=O)C(=O)N(C)C(=O)NC2</t>
+  </si>
+  <si>
+    <t>CN(C)C(=Nc1cc(=O)n(C)c(=O)n1C)SC(=S)N1CCCC1</t>
+  </si>
+  <si>
+    <t>CN(C=O)C(=O)N(C)c1cn(C)c(SC(=S)N2CCCC2)n1</t>
+  </si>
+  <si>
+    <t>CN1Cc2c(n(C)c(=O)n(C)c2=O)N=C1NCc1c[nH]cn1</t>
+  </si>
+  <si>
+    <t>CN1C(=O)c2c1nc(NCCCN1C(=O)C=CC1=O)n2C</t>
+  </si>
+  <si>
+    <t>CCCON1CCNC(NCCCCN2C(=O)c3ccccc3C2=O)=NCN(C(=O)NC)C1</t>
+  </si>
+  <si>
+    <t>CN(CCNC(=O)CSC(=S)N1CCCC1)CNc1nc2c(c(=O)n(C)c(=O)n2CCCCN=[N+]=[N-])n1C</t>
+  </si>
+  <si>
+    <t>CNC(=O)N1CN=C(NCCCCN2C(=O)c3ccccc3C2=O)NCCN(C=O)C1=O</t>
+  </si>
+  <si>
+    <t>CN(CCNC(=O)CSC(=S)N1CCCC1)CNc1nc2c(c(=O)n(C)c(=O)n2CCCN=[N+]=[N-])n1C</t>
+  </si>
+  <si>
+    <t>CCCN(O)Cc1[nH]c(NCCCN2C(=O)c3ccccc3C2=O)nc1NC(=O)NC</t>
+  </si>
+  <si>
+    <t>CN1CN(CCNC(=O)CSC(=S)N2CCCC2)C=Nc2c1c(=O)n(C)c(=O)n2C</t>
+  </si>
+  <si>
+    <t>C=CC=CCn1c(=O)n(C)c(=O)c2c1nc(NCN(C)CCNC(=O)CSC(=S)N1CCCC1)n2C</t>
+  </si>
+  <si>
+    <t>CNC(=O)NCN=C(CNCC=O)N(C)CCCNC=C(C=C(S)C(=O)OC)[N+](=O)[O-]</t>
+  </si>
+  <si>
+    <t>CNC(=Nc1cc(=O)n(C)c(=O)n1C)NCCCCNC(=O)CSC(=S)N1CCCC1</t>
+  </si>
+  <si>
+    <t>CN1Cc2nc(NCCCN3C(=O)C=CC3=O)[nH]c2C(=O)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C=O)c1nc(Sc2nc3ccccc3[nH]2)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CN(C=O)c1nc(NCCCCN2C(=O)C=CC2=O)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1nc(NCCN2C(=O)C=CC2=O)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1nc(Sc2nc3ccccc3[nH]2)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CCN(O)C(=O)N(C)CC(NCC=CCCCN=N)N(C)C</t>
+  </si>
+  <si>
+    <t>CN(C=O)C(=O)N(C)CC(NCC=CCCCN=N)N(C)C</t>
+  </si>
+  <si>
+    <t>COOC1=NCN2CC2(NCC=CCCCN=N)CN1C</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCCN=C2NC(=O)CS2)nc2c1C(=O)N2</t>
+  </si>
+  <si>
+    <t>CCNC(=O)N(C)c1cn(C)c(SC(=S)N2CCCC2)n1</t>
+  </si>
+  <si>
+    <t>CCn1c(NCCN)nc2c1c(=O)n(C)c(=O)n2C</t>
+  </si>
+  <si>
+    <t>CC1=CSC2=Nc3c(c(=O)n(C)c(=O)n3C)CN2C1</t>
+  </si>
+  <si>
+    <t>CN1CN(C)C(NCC=CCCCN=N)CN(C=O)C1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2c(nc(NCCCCNCCCN)n2C)n(C=O)c1=O</t>
+  </si>
+  <si>
+    <t>CNC(=NC(=CC=O)N(C)C=O)NCCCCN1C(=O)CCC1=O</t>
+  </si>
+  <si>
+    <t>CN1Cc2c(n(C)c(=O)n(C=O)c2=O)N=C1NCc1c[nH]cn1</t>
+  </si>
+  <si>
+    <t>CN1C(=O)N(CNCCN=C2NC(=O)CS2)Cc2ncn(C)c21</t>
+  </si>
+  <si>
+    <t>CN1Cc2c(n(C)c(=O)n(O)c2=O)N=C1NCc1c[nH]cn1</t>
+  </si>
+  <si>
+    <t>CN(C(=O)CN1CCCC1)C1=C(N)C(C=O)N(C)C(=O)N1</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)C(=O)C1=CN=C(SC(=S)N2CCCC2)N(C)C1</t>
+  </si>
+  <si>
+    <t>CN(C)C1(NCCCNCCCCNCCCN=N)c2c1n(C)c(=O)n(C)c2=O</t>
+  </si>
+  <si>
+    <t>CCn1c(CN(C)C)nc2c(=O)n(C)c(=O)n(C)c21</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)c1nc2c([nH]1)C(N(C)C)C(=O)N(C)C2=O</t>
+  </si>
+  <si>
+    <t>CN(C)CCN(C)c1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
+  </si>
+  <si>
+    <t>CCn1cc(C(=O)N(C)C(=O)NC)nc1CN(C)C</t>
   </si>
   <si>
     <t>CN(C)CCNc1nc2c(=O)n(C)c(=O)n(C)c2n1C</t>
   </si>
   <si>
-    <t>CNC(=O)N(C)C(=O)c1c(NC)nc(NCCCCCN)n1C</t>
-  </si>
-  <si>
-    <t>CC(=O)NCCCNC(=N)NC1=CN(O)C(=O)N(C)C1</t>
-  </si>
-  <si>
-    <t>CC1c2[nH]c(NCCCNCCCNC=O)nc2NC(=O)N1C</t>
-  </si>
-  <si>
-    <t>CC1Nc2nc(NCCCNCCCNC=O)[nH]c2C(=O)N1C</t>
-  </si>
-  <si>
-    <t>CCNCCCCCN(C)C(=N)N(C)C1=C2N(C=O)CN2C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)c2c(nc(NCCCCCN)n2C)NCNC1C=O</t>
-  </si>
-  <si>
-    <t>CCN1CN2C(=O)C(N(C)C(=N)SC(=S)N3CCCC3)=C12</t>
-  </si>
-  <si>
-    <t>CN1CN(C=O)c2nc(NCCN=CSCC=O)[nH]c2C1N</t>
-  </si>
-  <si>
-    <t>CN1C=C(NC(=N)NCCCNCCCNC=O)CN(C)C1=O</t>
-  </si>
-  <si>
-    <t>CC1c2[nH]c(N(C)CCN(C)C)nc2NC(=O)N1C</t>
-  </si>
-  <si>
-    <t>CN(C(=N)SC(=S)N1CCCC1)C1=C2N(C=O)CN2C1=O</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)NC1=CCC2=C3C2CN3N=NN1CCCN=[N+]=[N-]</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)CC1=C2C1CN2Sc1nc2ccccc2[nH]1</t>
-  </si>
-  <si>
-    <t>CCC1CN(CCNc2nc3c(c(=O)n(C)c(=O)n3C)n2C)C1</t>
-  </si>
-  <si>
-    <t>CC1C=CCN2C=NC3=C(C(=O)N(C)C(C=O)N3)C12</t>
-  </si>
-  <si>
-    <t>CN(C)C1C=NC1</t>
-  </si>
-  <si>
-    <t>CNC(=O)CNC1=CCC2=C3C2CN3N=NN1CCCCCN=[N+]=[N-]</t>
-  </si>
-  <si>
-    <t>CNC(=O)NCCCCCCCCCCCCN1C=CCC2=C3C2CN3N=N1</t>
-  </si>
-  <si>
-    <t>[N-]=[N+]=NCCCCCN1N=NN2CC3C(=C32)CC=C1Nc1ccccc1C=O</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)ON1CC23C(=C12)CN(C)C(=O)N3C</t>
-  </si>
-  <si>
-    <t>C[SH]=C(SON1C2=C3CN(C)C(=O)N(C)C1C32)N1CCCC1</t>
-  </si>
-  <si>
-    <t>CCN(CCCNC)N1CC2C(CN(C)C(=O)N(C)C=O)=C21</t>
-  </si>
-  <si>
-    <t>CC1=CC2CN3c4nnn(CCCCCN=[N+]=[N-])c4CN(C)CC(=O)C123</t>
-  </si>
-  <si>
-    <t>CCN(CCCCCCCCNC)ON1CC2C(CN(C)C=O)=C21</t>
-  </si>
-  <si>
-    <t>CCC1CN(CN(C)c2nc3c(=O)n(C)c(=O)n(C)c3n2C)C1</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)CC1=C2C1CN2OSC(=S)N1CCCC1C</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)CC1=C2C1CN2SC=Nc1ccccc1[NH]</t>
-  </si>
-  <si>
-    <t>CNCCN(C)c1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
-  </si>
-  <si>
-    <t>CNC1CN(C)C(NCCCCCN)C=NCN(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1Cc2nc(NCCCN3C(=O)C=CC3=O)[nH]c2C(=O)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)c2c(nc(NCCN=C(OS)SCC=O)n2C)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CNCCCNCCCNON1CC2C(CN(C)C(=O)NC)=C21</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)C(=O)n1cc(CN(C)CN2CC(N(C)C)C2)nn1</t>
-  </si>
-  <si>
-    <t>CN1c2c(c(=O)n(C)c(=O)n2C)N=CCC2CN1C2</t>
-  </si>
-  <si>
-    <t>CN1CC=Nc2c(n(C)c(=O)n(C)c2=O)N=C(CCN)CCCCC1</t>
-  </si>
-  <si>
-    <t>CCC1CN(CNc2nc3c(c(=O)n(C)c(=O)n3C)n2C)C1</t>
-  </si>
-  <si>
-    <t>CC1=CC2CN3c4nnn(CCCCCN=[N+]=[N-])c4CCC(=O)N(C)C123</t>
-  </si>
-  <si>
-    <t>CNCCNCCCCCNCN1CC2C(CN(C)C(=O)NC)=C21</t>
-  </si>
-  <si>
-    <t>CC1=CC2CN3c4nnn(CCCCCN=[N+]=[N-])c4CNC(=O)N(C)C123</t>
-  </si>
-  <si>
-    <t>CCN1C(=O)N(O)C(C)C2=C1N(C)N1CC(CCN2)C1</t>
-  </si>
-  <si>
-    <t>CC1=CC2CN3c4nnn(CCCCCN=[N+]=[N-])c4NC(C(C)C)C123</t>
-  </si>
-  <si>
-    <t>CCC1=C2C1CN2C=O</t>
-  </si>
-  <si>
-    <t>CCC1CN2CN(C)C=Nc3c(n(C)c(=O)n(C)c3=O)N=C12</t>
-  </si>
-  <si>
-    <t>CC1=CC2CN(c3cn(CCCN=[N+]=[N-])nn3)C12</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)N(C)c1cn(C)c(NCCCCCCN)n1</t>
-  </si>
-  <si>
-    <t>CNC(=O)C(=O)C(NN1C#CC=CC1)N(C)C=O</t>
-  </si>
-  <si>
-    <t>CN([SH]=CN1C#CC=CC1)C(N)C=O</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)[nH]c2c(c1=O)CCN1CC=CC(=O)C1N2</t>
-  </si>
-  <si>
-    <t>Cn1c(N)c(CCN2CC=CC(=O)C2)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)CCN1CC=CC(=O)C1=N2</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)N2CCNCCCNCCCN=N</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)[nH]c1=O)CCN1CC=CC(=O)C21</t>
-  </si>
-  <si>
-    <t>CN([SH]=CN1C#CC=CC1)C(N)C(=O)NC=O</t>
-  </si>
-  <si>
-    <t>Cn1c(CN2C#CC=CC2)c(ON)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)C(N)=C(NN2C#CC=CC2)N(C)C1C=O</t>
-  </si>
-  <si>
-    <t>CCCN(CNN1C#CC=CC1)C(=O)N(C)C=O</t>
-  </si>
-  <si>
-    <t>CNCCC1CCCN(C)N2C=C(C(=O)N(C)C(C)N2)N1C</t>
-  </si>
-  <si>
-    <t>CN1CCCN(CC2=CCN(C)C2=O)CC1=O</t>
-  </si>
-  <si>
-    <t>CC1C2=C(NN(C)CCCCCCN(C)NO2)N(C)C(=O)N1C</t>
-  </si>
-  <si>
-    <t>CNC1CCCCCN(C)Nc2c(c(=O)n(C)c(=O)n2C)N1C</t>
-  </si>
-  <si>
-    <t>CNCNCC1=Nc2c(n(C)c(=O)n(C)c2=O)N(C)CC1</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(C)c2cn(C)c(n2)SC2CN2C1=O</t>
-  </si>
-  <si>
-    <t>C=CC=CC=CN=CSC1C=N1</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN1CN(C)C2=CN1N(C)C(=O)N2C</t>
-  </si>
-  <si>
-    <t>CCn1cnc2c1C(=O)N(C)C(=O)NO2</t>
-  </si>
-  <si>
-    <t>CC(=O)N(C)CN(C)CN=CN(C)Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>CN(CCCCCNC=N)c1c(N)c(=O)n(C)c(=O)n1C</t>
-  </si>
-  <si>
-    <t>Cc1c(N(C)CCCCCNC=N)n(C)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N2N=NC1SCNCCC2=O</t>
-  </si>
-  <si>
-    <t>CNCNCC1CCN2C=C1N(C)C(=O)C2</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)N=C(CCCN)CNC=N2</t>
-  </si>
-  <si>
-    <t>CNCNCC1C2=CN3CC1=C(C3)N2C</t>
-  </si>
-  <si>
-    <t>CNCNCC1C2=CN(C)CC1=C(N)N2C</t>
-  </si>
-  <si>
-    <t>CN1C(=O)CCN2CC(=O)C1C2</t>
-  </si>
-  <si>
-    <t>CNCNC1=CN(C)C2=CN(C)CCC12</t>
-  </si>
-  <si>
-    <t>O=CN1N=NCSCNCCC1=O</t>
-  </si>
-  <si>
-    <t>CN1CN(C)C2=CN(CCCCCNC(=N)C1=O)C2</t>
-  </si>
-  <si>
-    <t>CN1CNC(CCCCNC=N)N2C=C(C2)C1=O</t>
-  </si>
-  <si>
-    <t>CN1c2c(n(C)c(=O)n(C)c2=O)N=CNCCCC1CN</t>
-  </si>
-  <si>
-    <t>N=CNCCCCCN1c2c1c(=O)c2=O</t>
-  </si>
-  <si>
-    <t>CN1CN2N=NC(SCNCCC2=O)C1=O</t>
-  </si>
-  <si>
-    <t>CN1c2ccccc2N2C=CC1NCSCN=N2</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)N=C(CCN)CCNC=N2</t>
-  </si>
-  <si>
-    <t>CN1CN=CN(Cc2ccccc2)CCC(=O)N(C)C1</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)CN(Cc1ccccc1)C=N2</t>
-  </si>
-  <si>
-    <t>CNCCCCCC1=Nc2c(c(=O)n(C)c(=O)n2C)NN1C</t>
-  </si>
-  <si>
-    <t>CNCCCCCC1=Nc2c(n(C)c(=O)n(C)c2=O)NN1C</t>
-  </si>
-  <si>
-    <t>CN(C=NC1=C(N)C(=O)N(C)CN1C)Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>CN1C=NC2=C(N=C1c1ccccc1)C(=O)N(C)CN2C</t>
-  </si>
-  <si>
-    <t>CN(C=NC1=CC(=O)N(C)CN1C)Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>CN(CN)CCN(C)c1c[nH]c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CCN1C(CN(C)C=Cc2c(C=O)[nH][nH]c2=O)N1C</t>
-  </si>
-  <si>
-    <t>CN1CC2=C(N=C3C(=O)C=CCN3CC2)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)NN1C#CC=CC1</t>
-  </si>
-  <si>
-    <t>CN(CC=CC=O)CCc1c(N)n(C)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CNCC1C=CCN(C=O)C1</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)CCN1CC(=O)C=CC1=N2</t>
-  </si>
-  <si>
-    <t>CN1CC2=C(N=CN(CC=CC=O)N2C)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1CC2=C(C3C(=O)C=CCN3CC2)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)CCN1CC=CC(=O)C21</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)C=CSCC(=O)N1C#CC=CC1</t>
-  </si>
-  <si>
-    <t>CN(C=O)CC=CSCC(=O)N1C#CC=CC1</t>
-  </si>
-  <si>
-    <t>CN1C(=O)CC2=C(N=C3C=CC(=O)CN3C2)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1CC2=C(N=CN(CC=CC=O)CC2)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1CC2=C(N(C)C1=O)N(C)C1C(=O)C=CCN1CC2</t>
-  </si>
-  <si>
-    <t>COC(=O)C(S)=CC(=CN(C)CN1CC(N(C)C)C1)[N+](=O)[O-]</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)CN=CNCCCCNCCCCN1CC(C(N)=O)C1</t>
-  </si>
-  <si>
-    <t>COC(=O)C(S)=CC1=CN(C)CN2CC(N(C)C)C2N(C)[N+]1=O</t>
-  </si>
-  <si>
-    <t>CNc1nc2n(C)c1C(=O)N(C)C(=O)N1CC2C1</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCCCN)Cc1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
-  </si>
-  <si>
-    <t>CNCCCC1CN(CNc2nc3c(c(=O)n(C)c(=O)n3C)n2C)C1</t>
-  </si>
-  <si>
-    <t>CN1C=CN(C)C(C=C[N+](=O)O)N(C)C(=O)N2CC1C2</t>
-  </si>
-  <si>
-    <t>CC1=CC2CN(c3cn(CCCCCN=[N+]=[N-])nn3)C12</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(C)C2=CN(C)C3CN(C1=O)C3=N2</t>
-  </si>
-  <si>
-    <t>CC1=CC2CN(C=CN(CCCCCN=[N+]=[N-])N=N)C12</t>
-  </si>
-  <si>
-    <t>CN1C(=O)CCC2=C(C=O)C1=C(CCCCN=[N+]=[N-])CCCn1cc(nn1)Cn1c(nc3ccccc31)SC=N2</t>
-  </si>
-  <si>
-    <t>[N-]=[N+]=NCCCCCCCCn1cc(Cn2c(SC=NC(=CC=O)CCC(=O)NC=O)nc3ccccc32)nn1</t>
-  </si>
-  <si>
-    <t>CN1CC(C=O)=C(N=CSc2nc3ccccc3n2Cc2cn(CCCCCCCCN=[N+]=[N-])nn2)CCC1=O</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)c2c(nc(Sc3nc4ccccc4n3CC=CC=O)n2CN=NN)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CCCC(=NC(=CC=O)C(=O)N(C)C=O)Sc1nc2ccccc2n1Cc1cn(CCCCCCCCN=[N+]=[N-])nn1</t>
-  </si>
-  <si>
-    <t>CCC(N(C)CCN(C)C(=N)N)N(C)N(C)N=O</t>
-  </si>
-  <si>
-    <t>NCCCCCNc1nc2c([nH]1)C(=O)NCN2CC=O</t>
-  </si>
-  <si>
-    <t>CCC1NC(=O)c2[nH]c(NCCCCCN)nc2N1O</t>
-  </si>
-  <si>
-    <t>CC(N(C)CCN(C)C(=N)S)N(CC=O)N(C)O</t>
-  </si>
-  <si>
-    <t>CCC(N(C)CCN(C)C(=N)S)N(O)N(C)C=O</t>
-  </si>
-  <si>
-    <t>CCNc1ncc(N(C)C(CC)N(N)N(C)OC)n1C</t>
-  </si>
-  <si>
-    <t>CCN1CN(O)c2nc(NCCCCCN)[nH]c2C1=O</t>
-  </si>
-  <si>
-    <t>CCCNc1nnc2c(n1)c(=O)n(C)c(=O)n2C</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCN=[N+]=[N-])CCN1C=CN=NC1</t>
-  </si>
-  <si>
-    <t>CNCCCCC1=Nc2c(c(=O)n(C)c(=O)n2C)NN(C)C1</t>
-  </si>
-  <si>
-    <t>CN1CC(N(C)c2cn(C)c(=O)n(C)c2=O)=N1</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)Nc1c(OC)n(C)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)c2cnc(n2C)CN(C)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)c2cn(C)c(n2)SC2CN2N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)Cn2ccnc2CN(C)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>Cn1c(N=CS2=NN3CC32)cc(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN(C=Nc1cc(=O)n(C)c(=O)n1C)Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>CN1Cc2c(nc(NCCN)n2OCC=O)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)C=CNC(N[SH]=C2C=CCNC2)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(C)N2CC(N=NC=O)C12</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)N=CN(CCCCCCCCN)C=N2</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)[nH]c1=O)CCN1CC=CC(=O)C1=N2</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)c2c(nc(N3C#CC=CC3)n2C)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN1CC(N)=C(NN2C#CC=CC2)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CNCCCCC1=Nc2c(n(C)c(=O)n(C)c2=O)NN(C)C1</t>
-  </si>
-  <si>
-    <t>CCCn1cnc2c1C(=O)N(C)C(=O)NO2</t>
-  </si>
-  <si>
-    <t>CN1CN=CN(Cc2ccccc2)CC(=O)C(=O)N(C)C1</t>
-  </si>
-  <si>
-    <t>CON1C2C=C3CN(C)CN(C)C(=O)C321</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)NC1=CN2CC=CCC2N1C</t>
-  </si>
-  <si>
-    <t>CN1CN(C)C2=C(N=CN(Cc3ccccc3)C=N2)C1=O</t>
-  </si>
-  <si>
-    <t>CN1CCC=Nc2c(c(=O)n(C)c(=O)n2C)NC2=C(CNC2)C1</t>
-  </si>
-  <si>
-    <t>CN(CC=Nc1c(N)c(=O)n(C)c(=O)n1C)CC1=CCNC1</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)Nc1cn(C)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN(C=Nc1c(N)c(=O)n(C)c(=O)n1C)Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>CN1c2c(n(C)c(=O)n(C)c2=O)N=CN1CC=CC=O</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)CCN(CC=CC=O)C=N2</t>
-  </si>
-  <si>
-    <t>CN1CC=CC(=O)Nc2c(n(C)c(=O)n(C)c2=O)N1C</t>
-  </si>
-  <si>
-    <t>CNCc1ccccc1CCNCCC=CC1=C2CN12</t>
-  </si>
-  <si>
-    <t>CN1CC=CC(=O)Nc2c(c(=O)n(C)c(=O)n2C)N1C</t>
-  </si>
-  <si>
-    <t>CN1CCN(C)c2c(n(C)c(=O)n(C)c2=O)Nc2ccccc2C1</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)NN(CC=CC=O)C=N2</t>
-  </si>
-  <si>
-    <t>CCN(C)CC(NN1C#CC=CC1)N(C)C=O</t>
-  </si>
-  <si>
-    <t>CN(CC=CC=O)N(C)c1c(N)n(C)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN(CCN=NN(Cc1ccccc1CN=[N+]=[N-])N=N)Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>C1=C2CN3CC2NCc2ccccc2CCNCC13</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N2N=NC1CNCC2=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)C2=C(C(=O)C1N)N(CCCCCNC=N)C2</t>
-  </si>
-  <si>
-    <t>Cc1ccccc1SCC(=S)N1C=CCNCSCN=N1</t>
-  </si>
-  <si>
-    <t>CNCNCC1CC2C(=S)N(C)C1=CN2C</t>
-  </si>
-  <si>
-    <t>CN1C2=CN(CCCCCNC=NNc3ccccc31)C2</t>
-  </si>
-  <si>
-    <t>CN1CCNC=NC2=C1C(=O)N(C)C2=O</t>
-  </si>
-  <si>
-    <t>CC1N(C)C(=S)C2CNCC(=O)N1N=N2</t>
-  </si>
-  <si>
-    <t>CNCN(C)C1=CN(CCCCCNC=N)C1</t>
-  </si>
-  <si>
-    <t>CN1CC2=C(C1=O)N(CCCCCNC=N)C2</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)c1nc(NCCCCNC(=O)CSC(=S)N2CCCC2)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)c1nc(NCCCCN2C(=O)c3ccccc3C2=O)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>Cn1c(NCCCCNC(=O)CSC(=S)N2CCCC2)nc(NCNC=O)c1C=O</t>
-  </si>
-  <si>
-    <t>O=CCN1C(=O)N2CCC(=O)C3C4C=C(CN3C2=S)C1=C4</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)N(CC=O)C(=S)N1CC2=CC(C=C2)C1</t>
-  </si>
-  <si>
-    <t>O=CN1C(=O)C2=CC3(CN(C3)C1=S)N=N2</t>
-  </si>
-  <si>
-    <t>CN1C(=O)C2=C3N(C)C1C(=O)C1C(CC=N2)CN1N3C</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(C=O)C(=S)N2CC3(C=C1N=N3)C2</t>
-  </si>
-  <si>
-    <t>COC(=O)C(S)=CC(=CNCCCN(C)C1C=Nc2c(c(=O)n(C)c(=O)n2C)N1C)[N+](=O)[O-]</t>
-  </si>
-  <si>
-    <t>COC(=O)C(S)=CC(=CN(C)CCN(C)C1=Nc2c(c(=O)n(C)c(=O)n2C)CN1)[N+](=O)[O-]</t>
-  </si>
-  <si>
-    <t>CNC(=Nc1cc(=O)n(C)c(=O)n1C)N(C)CCCCCCN(C)C=C(C=C(S)C(=O)OC)[N+](=O)[O-]</t>
-  </si>
-  <si>
-    <t>CNC1=NC(=CN(N)CCCCCCCCN=[N+]=[N-])Cn2c(nc3ccccc32)S1</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)Cc1nc(NCCCNCCCCNCCCN)[nH]c1C=O</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)c1nc(NCCN2C(=O)C=CC2=O)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)c1nc(Sc2nc3ccccc3s2)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(C)N(C)c2c1nc(NCCCNCCCNCCCN)n2C</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)c2nc(NCCCNCCCNCCCN)n(C)c2n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(C)N(C)c2c1nc(NCCCN1C(=O)CCC1=O)n2C</t>
-  </si>
-  <si>
-    <t>CN1CCc2c(n(C)c(=O)n(C)c2=O)C1C=CC=O</t>
-  </si>
-  <si>
-    <t>CN(CC=CC=O)CCc1cn(C)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN(Cc1ccccc1)CC1N=NNC1CCCCN=[N+]=[N-]</t>
-  </si>
-  <si>
-    <t>CN1CN=CN(CCN2CCCC2=O)CCC(=O)N(C)C1</t>
-  </si>
-  <si>
-    <t>CC1CNC(=O)C2=C(CN2C)N=NN(CCCN=[N+]=[N-])CN1C</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)CCN1CC(=O)C=C(C1)N2</t>
-  </si>
-  <si>
-    <t>CN1C(=O)NC(=O)CC2=C1CN(CC=CC=O)C2</t>
-  </si>
-  <si>
-    <t>CN1CC(=CC=O)Nc2c(c(=O)n(C)c(=O)n2C)N1C</t>
-  </si>
-  <si>
-    <t>CN(Cc1ccccc1)Cc1cn(CCCCCCCCN=[N+]=[N-])nn1</t>
-  </si>
-  <si>
-    <t>CCCCCn1cc(CNCCC=CCN(C)N=[N+]=[N-])nn1</t>
-  </si>
-  <si>
-    <t>CNCCCNCCCNc1nc2c(n1C)C(=O)N(O)CN2</t>
-  </si>
-  <si>
-    <t>CCNCCCNc1ncc(C(=O)N(N)C(C)N(C)C)n1C</t>
-  </si>
-  <si>
-    <t>CNCCNc1ncc(C(=O)NC(C)N(C)C=O)n1C</t>
-  </si>
-  <si>
-    <t>CCNCCn1c(C(=O)N(C)CN(C)NCC)cnc1NC</t>
-  </si>
-  <si>
-    <t>CCNCCNc1ncc(C(=O)N(C)C(N)N(C)C=O)n1C</t>
-  </si>
-  <si>
-    <t>CCN(C)C(SC)N(C=CNC)CC(=O)N1CN(C)C1</t>
-  </si>
-  <si>
-    <t>CCNCCCCCCNc1nc2c(n1O)C(=O)NCN2</t>
-  </si>
-  <si>
-    <t>CCNCCCCCCNc1nc2c(n1O)C(=O)N(C)CN2</t>
-  </si>
-  <si>
-    <t>CN1C(=O)CN=CNCCCCCN2C=C(C2)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N=CNCCCCCN2C=C(C2)C1=O</t>
-  </si>
-  <si>
-    <t>CN(C)CN(C)C1=CN(CCCCCNC=N)C1</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN1Cc2cn1n(C)c2=S</t>
-  </si>
-  <si>
-    <t>CN1CN(C)CN(C2=CN(CCCCCNC=N)C2)C1</t>
-  </si>
-  <si>
-    <t>CN(CN=[N+]=[N-])CN(C)C1=CN(CCCCCNC=N)C1</t>
-  </si>
-  <si>
-    <t>CNC1=Nc2c(c(=O)n(C)c(=O)n2C)N(C)CCCCN1</t>
-  </si>
-  <si>
-    <t>CN1CC2=CN(CCCCCNC(=N)N(C)C1=O)C2</t>
-  </si>
-  <si>
-    <t>CN1N=CNCCCCCN2C=C(C2)N(C)C1=S</t>
-  </si>
-  <si>
-    <t>CN1N=CNCCCCCN2C=C(C2)N(C)c2ccccc21</t>
-  </si>
-  <si>
-    <t>CN1CC2=CN(CCCCCNC=NN(C)C1=S)C2</t>
-  </si>
-  <si>
-    <t>CN(C)C(=O)N(C)C(=O)c1cnc(NCc2c[nH]cn2)n1C</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCNc1nc2c([nH]1)CN(C)C(C)N2C=O</t>
-  </si>
-  <si>
-    <t>CNCCCCCCNC(=N)N(C)C1=CN(O)C(=O)N(C)C1C</t>
-  </si>
-  <si>
-    <t>CCCCCCCCCCNc1nc2c([nH]1)CN(C)C(C)N2C</t>
-  </si>
-  <si>
-    <t>CNCCCCCCNC(=N)N(C)C1=CN(O)C(C)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCNC(=N)NC1=CN(OC)C(C)N(C)C1</t>
-  </si>
-  <si>
-    <t>CCNCCCCCCCNC(=N)NC1=CN(O)C(C)N(C)C1</t>
-  </si>
-  <si>
-    <t>CC1c2c(nc(SCC(C)(C)C)n2O)NC(=O)N1C</t>
-  </si>
-  <si>
-    <t>CC1c2[nH]c(N(C)CCN(C)C)nc2N(O)C(=O)N1C</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCNC(=N)NC1=CN(C=O)C(C)N(C)C1</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)c2[nH]c(SCC(C)(C)C)nc2n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CN(C)CCN(C)c1nc2c(n1C=O)C(=O)N(C)CN2</t>
-  </si>
-  <si>
-    <t>CN1C=Nc2c(c(=O)n(C)c(=O)n2C)C1c1ccccc1</t>
-  </si>
-  <si>
-    <t>CN1CN(C)C2=C(CN(Cc3ccccc3)C=N2)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C=Nc2c(c(=O)n(C)c(=O)n2C)N=C1c1ccccc1</t>
-  </si>
-  <si>
-    <t>CC1CC(=O)C2=C(NCCN2C)N1Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>O=CN1CC=CC(=O)C1</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)[nH]c1=O)CN(Cc1ccccc1)C=N2</t>
-  </si>
-  <si>
-    <t>CN(C(=O)NCC=O)C1NN2C#CC=C1C2</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)C=CC1CC=CCN21</t>
-  </si>
-  <si>
-    <t>CNNC(=CC1=CN(C)CCN(C)C1=O)CCOO</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)[SH]=CN1C#CC=CC1</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)c1nc(NCCN2C(=O)CCC2=O)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)Nc1nc(Sc2nc3ccccc3n2Cc2cn(CCCCCCCCCCCCN=[N+]=[N-])nn2)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>CN(C)C(=O)Nc1nc(Sc2nc3ccccc3n2Cc2cn(CCCCCCCCCCCCN=[N+]=[N-])nn2)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>CNC(=O)CCc1nc(Sc2nc3ccccc3n2Cc2cn(Cc3ccccc3CN=[N+]=[N-])nn2)n(CN)c1C=O</t>
-  </si>
-  <si>
-    <t>CNC(=O)CCc1nc(Sc2nc3ccccc3n2Cc2cn(CCCCCCCCCCCCN=[N+]=[N-])nn2)n(CN)c1C=O</t>
-  </si>
-  <si>
-    <t>CNCCCCCNc1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
-  </si>
-  <si>
-    <t>CNCCCCCNc1nc2c([nH]1)c(=O)n(C)c(=O)n2C</t>
-  </si>
-  <si>
-    <t>Cn1cc(CCN2C#CC=CC2)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>C=C(C=CC(=S)NCCCCCCCNC)NN=NN1CC=CC(=O)C1</t>
-  </si>
-  <si>
-    <t>CC1N(C)CC2=C(C3C(=O)C=CCN3CC2)N1O</t>
-  </si>
-  <si>
-    <t>CCN(C)C1C2=CC#CN(C=[SH]N(C)C(=O)N1C)C2</t>
-  </si>
-  <si>
-    <t>CCCCNON(C)CCN1C=CN(C)CN(C)C(=O)C1</t>
-  </si>
-  <si>
-    <t>Cn1c(NN2C#CC=CC2)cc(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>CC1NCCCCN2CC=CC(=O)C2C(C=O)N1C</t>
-  </si>
-  <si>
-    <t>CN1C(=O)C=C(N=CNCCCCNC(=O)CSC(=S)N2CCCC2)CCC1=O</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)C(=CC=O)N=C(NC)NCCCCNC(=O)CSC(=S)N1CCCC1</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)CC(=CC=O)N=CNCCCCNC(=O)CSC(=S)N1CCCC1</t>
-  </si>
-  <si>
-    <t>CNC(=Nc1[nH]c(=O)n(C)c(=O)c1C=O)NCCCCNC(=O)CSC(=S)N1CCCC1</t>
-  </si>
-  <si>
-    <t>CN(C(=O)NC=O)c1nc(NCCCCNC(=O)CSC(=S)N2CCCC2)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>CNC(=NC(=CC=O)N(C)C(=O)NC=O)NCCCCNC(=O)CSC(=S)N1CCCC1</t>
-  </si>
-  <si>
-    <t>CCCSC(NC)N(C)C1=CN(OC)CN(C)C1=O</t>
-  </si>
-  <si>
-    <t>CCCCCCNc1nc2c([nH]1)C(=O)NC(NC)N2C=O</t>
-  </si>
-  <si>
-    <t>CCCCCCNc1nc2c([nH]1)C(=O)N(N)C(C)N2C=O</t>
-  </si>
-  <si>
-    <t>CON1CN(C)C(=O)C2=C1CN=C(NCCN)N2C</t>
-  </si>
-  <si>
-    <t>CCCCCCNc1nc2c([nH]1)C(=O)N(NC)CN2C=O</t>
-  </si>
-  <si>
-    <t>CCCCCCNC(=N)N(N)C1=CN(C=O)CN(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1CC2=CN(C1)N=C(NCCCCCNC=O)N2</t>
-  </si>
-  <si>
-    <t>CC=CC=CSC1NC2=CN(SC=O)CN(C2=O)N1C</t>
-  </si>
-  <si>
-    <t>CC=CC=CSC1N(N)C2=CN(CC)CN(C2=O)N1C</t>
-  </si>
-  <si>
-    <t>CNC(=O)N(C)c1nc(NCCCNC(=O)CSC(=S)N2CCCC2)n(C)c1C=O</t>
-  </si>
-  <si>
-    <t>CN(C)C(=O)N(C)CCCNCNN1C#CC=CC1</t>
-  </si>
-  <si>
-    <t>CN(C(=O)NC=O)N1CC1Sc1nccn1C</t>
-  </si>
-  <si>
-    <t>CCCCCCNc1nc2c(n1N)C(=O)N(C)CN2C=O</t>
-  </si>
-  <si>
-    <t>CC=CC=CSC1NC2=CN(CSC)CN(C2=O)N1C</t>
-  </si>
-  <si>
-    <t>CCNN(C)CCN(C)C=Cc1c(C=O)[nH][nH]c1=O</t>
-  </si>
-  <si>
-    <t>CCNN1CC1SC=Nc1cc(=O)n(C)c(=O)n1C</t>
-  </si>
-  <si>
-    <t>CN1CN(CCCCCCCCN)C=NCC(=O)NC(=O)N(C)C1</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)NOc1cn(C)cn1</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN1CC2=CN1N(C)C(=O)N2C</t>
-  </si>
-  <si>
-    <t>CN1CCCCCN(C=N)Cc2c1n(C)c(=O)n(C)c2=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(C)C2CCCC(CNN)C1=CCCN2C</t>
-  </si>
-  <si>
-    <t>CN1CC=C(CN2CCN(C)C(=O)N(C)C2)C1=O</t>
-  </si>
-  <si>
-    <t>CC1NN(C=N)CCCCCN2C=C(C2)C(=O)N1C</t>
-  </si>
-  <si>
-    <t>CN1C=Nc2c(n(C)c(=O)[nH]c2=O)N=C1CCCCCCCN</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCN(C=O)ON1CC2C(CN(C)C=O)=C21</t>
-  </si>
-  <si>
-    <t>[N-]=[N+]=NCCCCCN1N=NN2CC3C(=C32)CC=C1CC(=O)NC=O</t>
-  </si>
-  <si>
-    <t>[N-]=[N+]=NCCCCCN1N=NN2CC3C(=C32)CC=C1CC(=O)NCC=O</t>
-  </si>
-  <si>
-    <t>[N-]=[N+]=NCCCN1N=NN2CC3C(=C32)CC=C1Sc1nc2ccccc2[nH]1</t>
-  </si>
-  <si>
-    <t>CN1CN2N=NC(CNCC2=O)C1=S</t>
-  </si>
-  <si>
-    <t>CNCC1N=NN(NN(C)CSC)C1C</t>
-  </si>
-  <si>
-    <t>CNC1=C(N(C)CCCCCNC=N)C(=O)C(=O)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)C(=O)C2=C(NC(CCCCNC=N)N2C)C1=O</t>
-  </si>
-  <si>
-    <t>CNC1C(=S)C(=N)NCCCCCN2C=C1C2</t>
-  </si>
-  <si>
-    <t>CN1N=CNCCCCCN2C=C(C2)C1=O</t>
-  </si>
-  <si>
-    <t>CC=CC=CN(C)C1=CN(CCCCCNC=N)C1</t>
-  </si>
-  <si>
-    <t>CCn1cc(CN(C)CN=[N+]=[N-])nn1</t>
-  </si>
-  <si>
-    <t>CN(Cc1ccccc1)Cc1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
-  </si>
-  <si>
-    <t>CN1c2c(c(=O)n(C)c(=O)n2C)N=CN1CC=CC=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)C2=CN=C(N3CCCC3)NCCC=CCN21</t>
-  </si>
-  <si>
-    <t>CNC=C(C=O)NCCC=CCN1CN(C)C1=O</t>
-  </si>
-  <si>
-    <t>CNCCC=C1CN(C)c2c1n(C)c(=O)n(C)c2=O</t>
-  </si>
-  <si>
-    <t>CC1CC2C(=O)N(C)C(=O)NN2C1</t>
-  </si>
-  <si>
-    <t>CC1CCNCSC2N=NN1OCN2C</t>
-  </si>
-  <si>
-    <t>CNCNCC1CCN2C=C1N(C)CNC2</t>
-  </si>
-  <si>
-    <t>Cn1c2c(c(=O)n(C)c1=O)NN(CCCCCN)C=N2</t>
-  </si>
-  <si>
-    <t>CCC(N(C)CCN(C)C(=N)S)N(C)N(C)OO</t>
-  </si>
-  <si>
-    <t>CSC(=N)N(C)CCN(C)C(C)N(C)N(C)OO</t>
-  </si>
-  <si>
-    <t>CNC(=N)N(C)CCN(C)C(C)N(C)N(C)N=O</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(CNCCC=O)N(C)CCNC1=S</t>
-  </si>
-  <si>
-    <t>CN1CCNCN(C)C(=O)CCC1=O</t>
-  </si>
-  <si>
-    <t>CN1CNC(=O)c2c1nc(NCCCNCCCN)n2C</t>
-  </si>
-  <si>
-    <t>CN1CN(C)c2nc(NCCCNCCCN)n(C)c2C1=O</t>
-  </si>
-  <si>
-    <t>CCSC1=C(N(C)CN)N(C)C(=O)N(C)CC1NC</t>
-  </si>
-  <si>
-    <t>CNC1CN(C=O)C(=O)N(C)C(N(C)CN)=C1SC</t>
-  </si>
-  <si>
-    <t>CCSC1=C2N(C)C(=O)N(C)C(=C(N)N2C)C1NC</t>
-  </si>
-  <si>
-    <t>CCNCCCNCCCNC1=NN2C=C(C(C)NC2=O)N1O</t>
-  </si>
-  <si>
-    <t>CN1CC2=C(C1=O)N(Cc1ccccc1)CCN=NN2</t>
-  </si>
-  <si>
-    <t>CN(CC=CC=O)N(C)c1c(N)n(C)c(=O)[nH]c1=O</t>
-  </si>
-  <si>
-    <t>CCN1CCSCCNC(=O)C2N3C=CC=C1C1=CC2(C3)N=N1</t>
-  </si>
-  <si>
-    <t>C=CC=CC=CCN1OC(C)N(C)C2N3C=CC=C1C1=CC2(C3)N=N1</t>
-  </si>
-  <si>
-    <t>CN1CC2NCC34C1=CN(C)C3CN4C(=O)N2C</t>
-  </si>
-  <si>
-    <t>CN1CC=Nc2c(c(=O)n(C)c(=O)n2C)N=C(CCCCCN)CC1</t>
-  </si>
-  <si>
-    <t>CN1C(=O)N(CC(=O)CNC=O)C(=O)N2CC3(C=C1N=N3)C2</t>
-  </si>
-  <si>
-    <t>CN1N=NN2CC=CC(=O)C2C=CCNC(=O)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CCCCCCCCCN(C)Nc1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
-  </si>
-  <si>
-    <t>CN1CCN2CC(CCCCN)C2=Nc2c1c(=O)n(C)c(=O)n2C</t>
-  </si>
-  <si>
-    <t>O=CC1N2CCSCCNC13N1C=CC=C2C2=CC3(C1)N=N2</t>
-  </si>
-  <si>
-    <t>CC1NCC=C1CN1Cc2c(n(C)c(=O)[nH]c2=O)N1</t>
-  </si>
-  <si>
-    <t>CN(C=Cc1c(C=O)[nH][nH]c1=O)CCN1CN1C</t>
-  </si>
-  <si>
-    <t>CCC1CN(N(C)c2c(N)c(=O)n(C)c(=O)n2C)C1</t>
-  </si>
-  <si>
-    <t>CCC1CN(N(C)C2=C(N)C(=O)N(C)C(O)N2C)C1</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCNON1CC2C(CN(C)C(=O)NC)=C21</t>
-  </si>
-  <si>
-    <t>CCNCCCCCCCNc1nc2c([nH]1)CN(C)C(C)N2O</t>
-  </si>
-  <si>
-    <t>CCN(C=O)C(=O)N(C)C1=CCCN2C#CC=CC12</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)N(C)C1CCN2C#CC=C1C2</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)N(C)C(=O)CCN1C#CC=CC1</t>
-  </si>
-  <si>
-    <t>CN1CC(=O)C(NN2C#CC=CC2)N(C)C(=O)C1O</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(C=O)N(C)C(=O)CCN1C#CC=CC1</t>
-  </si>
-  <si>
-    <t>CN(C=O)C(=O)N(CC=O)CNN1C#CC=CC1</t>
-  </si>
-  <si>
-    <t>CNCCCN(CN)CN(C)C(=O)CCN1C#CC=CC1</t>
+    <t>CN1CCCn2c(nc3c(=O)n(C)c(=O)n(C)c32)C1</t>
+  </si>
+  <si>
+    <t>CN1C2=C3N(C=O)C1C(C=O)(N(C)C2)N3C</t>
+  </si>
+  <si>
+    <t>CCn1c(=O)c2nc(NCCN(C)C)n(C)c2n(C)c1=O</t>
+  </si>
+  <si>
+    <t>COC1(O)N(C)CC2NCC=CC3=NC31N2C</t>
+  </si>
+  <si>
+    <t>CN1CN=CC=CSC1CCN1C(=O)C=CC1=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(=NCC(=O)N(C)C=O)Sc1ccccc1</t>
+  </si>
+  <si>
+    <t>CN1CC2(NCC=CCCCN=N)C(C1=O)N2C</t>
+  </si>
+  <si>
+    <t>C=CC=CC1=NC2C(=O)C(S1)N2C</t>
+  </si>
+  <si>
+    <t>CN(C)C(CCCNC(=S)N1CCCC1N)[SH]1C=CC=N1</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)NC1C=CC=CC1</t>
+  </si>
+  <si>
+    <t>CCNC(=O)N(C)C(=O)N=CCC1SC=CC=NCN1C</t>
+  </si>
+  <si>
+    <t>CN(C)C(CCCNC(=S)N1CCCC1)[SH]1C=CC=N1</t>
+  </si>
+  <si>
+    <t>CC(C)CSC(=NCN(C)C(=O)NC=O)N(C)C</t>
+  </si>
+  <si>
+    <t>CNCCCCCCNC1C(C=O)N(C)C(=O)CN1C</t>
+  </si>
+  <si>
+    <t>CNCCCCCCN(C)C1=NCC(C)NCNCCN1C</t>
+  </si>
+  <si>
+    <t>CN(CC=O)CCNC1=CCN(C)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CN1CCn2cc(n2C)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C)CCN(CN)C1=CC2CN1CC(=O)N2C</t>
+  </si>
+  <si>
+    <t>CNc1nc2c(c(=O)n(C)c(=O)n2C)n1Cc1c[nH]cn1</t>
+  </si>
+  <si>
+    <t>CCn1cc(N=C(NC)N(C)CCCNC)c(=O)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CN1C(=O)C(=O)c2nc(NCCN3C(=O)c4ccccc4C3=O)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1cc(=O)n(C)c(NCCN2C(=O)c3ccccc3C2=O)n1</t>
+  </si>
+  <si>
+    <t>CN1C(=O)C(=O)c2nc(NCCCN3C(=O)c4ccccc4C3=O)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)CCC(=CC=O)N=CNCCNC(=O)CSC(=S)N1CCCC1</t>
+  </si>
+  <si>
+    <t>CN1Cc2nc(NCCNC(=O)CSC(=S)N3CCCC3)[nH]c2C(=O)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1nc(NCCN2C(=O)c3ccccc3C2=O)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)C(=CC=O)N=C(NC)NCCCNC(=O)CSC(=S)N1CCCC1</t>
+  </si>
+  <si>
+    <t>CNC(=O)C(=CC=O)N=CSc1nc2ccccc2n1Cc1cn(Cc2cccc(CN=[N+]=[N-])c2)nn1</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)c1nc(Sc2nc3ccccc3n2Cc2cn(Cc3cccc(CN=[N+]=[N-])c3)nn2)n(C)c1C=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)CCC(=CC=O)N=CSc1nc2ccccc2n1Cc1cn(Cc2cccc(CN=[N+]=[N-])c2)nn1</t>
+  </si>
+  <si>
+    <t>CSc1nc2c(n1C)n(C)c(=S)n2C</t>
+  </si>
+  <si>
+    <t>C[SH]=CN1CN=CN(C)CN(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN1C=NCN(C)C(=O)N(C)C(=S)C1</t>
+  </si>
+  <si>
+    <t>CNC(=Nc1cc(=O)n(C)c(=O)n1C)NCCNC(=O)CSC(=S)N1CCCC1</t>
+  </si>
+  <si>
+    <t>CNC(=O)c1[nH]c(NCCCNCCCCNCCCN)nc1N(C)C(C=O)NC=O</t>
+  </si>
+  <si>
+    <t>CNC=C1N=C(NCCN2C(=O)CCC2=O)N(CN(OC)C(=O)NC)CN(C)C(=O)N1C</t>
+  </si>
+  <si>
+    <t>CNCCCCCN(C)c1nc2c(=O)n(C)c(=O)n(C)c2n1C</t>
+  </si>
+  <si>
+    <t>CC(=O)NCCCCNc1nc2c(n1C)CN(C)C(=O)N2C</t>
+  </si>
+  <si>
+    <t>CC(C)NCCCNc1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
+  </si>
+  <si>
+    <t>CN1C(=O)CN(CNCCCCCN)N(C)C(N(C)C)C1=O</t>
+  </si>
+  <si>
+    <t>CNN(CNCCCCCN)CC(=O)N(C)C(=O)CN(C)C</t>
+  </si>
+  <si>
+    <t>CN1C(=O)CN2C=C3C1CC(=O)C2N3C(=N)NCCN</t>
+  </si>
+  <si>
+    <t>CN1CCCN(C)c2nc3c(=O)n(C)c(=O)n(C)c3n2C=CNC1</t>
+  </si>
+  <si>
+    <t>CN(C)C1=CNC=Cn2c(nc3c(=O)n(C)c(=O)n(C)c32)N(C)C1</t>
+  </si>
+  <si>
+    <t>CN(C)CCCN(C)c1nc2c(=O)n(C)c(=O)n(C)c2n1C</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)C(=O)C=CN(CNCCCCCN)NCC=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)CCC(=CC=O)N=CSc1nc2ccccc2n1Cc1cn(CCCCCN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>CNCn1c(Sc2nc3ccccc3n2Cc2cn(CCCN=[N+]=[N-])nn2)nc2c1C(=O)N(C)C2=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)C(=CC=O)N=CSc1nc2ccccc2n1Cc1cn(CCCN=[N+]=[N-])nn1</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2c(nc(NCCN)n2CC=O)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CN1CN=C(NCCCN=C2NC(=O)CS2)N(C)CC1=O</t>
+  </si>
+  <si>
+    <t>CN1C(=O)NCC(NCC=CCCCN=N)(N(C)C)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)N1C=C(N=CC=O)N(C)CC1</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)C=CN(C)CC1SC=CC(=O)CN1C</t>
+  </si>
+  <si>
+    <t>CCN1CC(NCC=CCCCN=N)N(C)CN(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN1CC(O)=C(C2(N(C)C)N=CC=CS2)C=NC1=O</t>
+  </si>
+  <si>
+    <t>CN1CN=CC=CSC1CCN1Cc2ccccc2C1=O</t>
+  </si>
+  <si>
+    <t>CN(C)c1nc2c(n1C)N(O)C(CCCN)N(C)C2=O</t>
+  </si>
+  <si>
+    <t>C=CC(=CC=CC1=CN=C=N1)CN=[N+]=[N-]</t>
+  </si>
+  <si>
+    <t>COC(=O)C(S)=CC(=CN(C)CCCCCCCCN(C)c1nc2c(n1O)C(C)N(C)C(=O)N2C)[N+](=O)[O-]</t>
+  </si>
+  <si>
+    <t>COC(=O)C(S)=CC(=CN(C)CCN(C)c1nc2c(c(=O)n(C)c(=O)n2CCN=[N+]=[N-])n1C)[N+](=O)[O-]</t>
+  </si>
+  <si>
+    <t>CCSC(=NC)N(C)C1=CN(OC)C(=O)N(C)C1</t>
+  </si>
+  <si>
+    <t>CCC(=Nc1cc(=O)n(C)c(=O)n1C)N(C)NC=O</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2c(nc3n2C=C(N=C[NH])CN3)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CN1CC2=C(N(C=O)C1=O)N2C(=N)NCCCCN</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)c1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
+  </si>
+  <si>
+    <t>CN1C(=O)C=C(N=C(C=O)Sc2nc3ccccc3n2Cc2cn(Cc3ccc(CN=[N+]=[N-])cc3)nn2)C1=O</t>
+  </si>
+  <si>
+    <t>COC(=O)C(=CC(=CN(C)CN(C)CCCc1nc2c(c(=O)n(C)c(=O)n2C)n1C)[N+](=O)[O-])SC</t>
+  </si>
+  <si>
+    <t>CCN(CNCCCN=C1NC(=O)CS1)C(C=O)=NC(C=O)=CC=O</t>
+  </si>
+  <si>
+    <t>CN(C)C1=C(NCC(=O)N(C)C=O)C=CC=CCS1</t>
+  </si>
+  <si>
+    <t>CSC1=C2C3N(C)C(=O)N(C)CN1C=C(CN)N23</t>
+  </si>
+  <si>
+    <t>CSC1=C2CC(=O)N(C)C(=O)CN1C=C(N)N2</t>
+  </si>
+  <si>
+    <t>C[SH]=c1n(C)c2c(c(=O)n1C)N=CN(C)C=N2</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)C1=CN(C)C1NCCCNCCCCNCCCN=N</t>
+  </si>
+  <si>
+    <t>CN1C(=O)c2nc(NCCC3SC=CC=NCN3C)n(C)c2C1=O</t>
+  </si>
+  <si>
+    <t>C[SH]=C1CN(C)C(SCC(C)C)=NCN(C)C(=O)N1</t>
+  </si>
+  <si>
+    <t>CCCSN(C)CSc1nc2c(c(=O)n(C)c(=O)n2C)n1C</t>
+  </si>
+  <si>
+    <t>CN(C(=N)NCCNCCN)c1cn(C)c(=O)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>CN1Cc2c(nc(SC(=O)N3CCCCS3)n2C)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CCNCNC1N(C)CN1C(=O)N(C)C(N)N(C)C=O</t>
+  </si>
+  <si>
+    <t>CCCSC(=NCNC)N(C)CN(C)C</t>
+  </si>
+  <si>
+    <t>CCN1C(=O)N(C)C2=CN=C1C1(SC=CC1=O)N(C)C2</t>
+  </si>
+  <si>
+    <t>CN(C=O)CN(C)C(=O)N=CCC1(N(C)C)N=CC=CS1</t>
+  </si>
+  <si>
+    <t>CN1CN(CC=O)C(=O)NCC1NCC=CCCCN=N</t>
+  </si>
+  <si>
+    <t>CN1CN=CNc2c[nH]cc2CNCN(C=O)CNC1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)c2nc(NCCN3C=CC(=O)C3)n(C)c2n(C)c1=O</t>
+  </si>
+  <si>
+    <t>Cn1c(NCCNCCN)nc2[nH]c(=O)n(O)c(=O)c21</t>
+  </si>
+  <si>
+    <t>CC1NC(=O)N(C)CN=C(CCNCCNN)CN1C=O</t>
+  </si>
+  <si>
+    <t>CCn1c(=O)c2nc(N(C)C)n(C)c2n(C)c1=O</t>
+  </si>
+  <si>
+    <t>[N-]=[N+]=NCc1ccccc1CN(N)C=CCC1NC=C(Nc2ccccc2N)S1</t>
+  </si>
+  <si>
+    <t>CN1C(=O)N=CCC2(N(C)C)N=CC(=CS2)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN1CC2NCC=CC3=NC3(C1=O)N2C</t>
+  </si>
+  <si>
+    <t>CC1N(C)C(=O)N(C=O)CN2CC12NCC=CCCCN=N</t>
+  </si>
+  <si>
+    <t>CN1CN2C=C(C1=O)N(C=O)C(NCCCCNCCCN)=N2</t>
+  </si>
+  <si>
+    <t>CON1c2nc(NCCCNCCCNCCCN)[nH]c2C(=O)N(C)C1C</t>
+  </si>
+  <si>
+    <t>CON1C=C2NC(NCCCNCCCNCCCN)=NC1(C)N(C)C2=O</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C384"/>
+  <dimension ref="A1:C347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1548,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>19.7</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1559,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>19.85</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1570,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>20.05</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1581,7 +1470,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>35.15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1592,7 +1481,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>30.5</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1603,7 +1492,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>29.65</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1614,7 +1503,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>12.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1625,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>48.5</v>
+        <v>36.25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1636,7 +1525,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1647,7 +1536,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>31.2</v>
+        <v>45.25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1658,7 +1547,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>35.25</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1669,7 +1558,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>24.7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1680,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>29.15</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1691,7 +1580,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>48.25</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1702,7 +1591,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>49.25</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1713,7 +1602,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>27.35</v>
+        <v>76.25</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1724,7 +1613,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>26.85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1735,7 +1624,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>30.65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1746,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>50.5</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1757,7 +1646,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>25.5</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1768,7 +1657,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>20.25</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1779,7 +1668,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>27.05</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1790,7 +1679,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>28.25</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1801,7 +1690,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>27.75</v>
+        <v>63.75</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1812,7 +1701,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>27.1</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1823,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1834,7 +1723,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>62</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1845,7 +1734,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>19.25</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1856,7 +1745,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>52.25</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1867,7 +1756,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>9.75</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1878,7 +1767,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>60.75</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1889,7 +1778,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>15.5</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1900,7 +1789,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>45.1</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1911,7 +1800,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>39.6</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1922,7 +1811,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>32</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1933,7 +1822,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>25.65</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1944,7 +1833,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>27.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1955,7 +1844,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>56.75</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1966,7 +1855,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>28.7</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1977,7 +1866,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>5.2</v>
+        <v>34.25</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1988,7 +1877,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>12.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1999,7 +1888,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>47.25</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2010,7 +1899,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>43.5</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2021,7 +1910,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>31.75</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2032,7 +1921,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>33.35</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2043,7 +1932,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>19.25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2054,7 +1943,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>18.8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2065,7 +1954,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>32.55</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2076,7 +1965,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>47.25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2087,7 +1976,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2098,7 +1987,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>40.25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2109,7 +1998,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>32.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2120,7 +2009,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>29.4</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2131,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>6.4</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2142,7 +2031,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>33.15</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2153,7 +2042,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>20.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2164,7 +2053,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>29.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2175,7 +2064,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>31.7</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2186,7 +2075,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>29.2</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2197,7 +2086,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>28.6</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2208,7 +2097,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>30.45</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2219,7 +2108,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>13.5</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2230,7 +2119,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>22.85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2241,7 +2130,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>27.3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2252,7 +2141,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>15.85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2263,7 +2152,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>18.5</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2274,7 +2163,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>30.65</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2285,7 +2174,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>10.5</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2296,7 +2185,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>25.25</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2307,7 +2196,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>64</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2318,7 +2207,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>58</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2329,7 +2218,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>32.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2340,7 +2229,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>21.65</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2351,7 +2240,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>11.9</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2362,7 +2251,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>19.6</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2373,7 +2262,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>9.85</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2384,7 +2273,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>27.85</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2395,7 +2284,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>58.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2406,7 +2295,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>28.35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2417,7 +2306,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>21.7</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2428,7 +2317,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>29.1</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2439,7 +2328,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>18.15</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2450,7 +2339,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>24.95</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2461,7 +2350,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>26.6</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2472,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>19.25</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2483,7 +2372,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>46.75</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2494,7 +2383,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>49.5</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2505,7 +2394,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>48</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2516,7 +2405,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>25.75</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2527,7 +2416,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>43.6</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2538,7 +2427,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>32.9</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2549,7 +2438,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>41.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2560,7 +2449,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>19.25</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2571,7 +2460,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>59.5</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2582,7 +2471,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2593,7 +2482,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>51.35</v>
+        <v>43.25</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2604,7 +2493,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>14.85</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2615,7 +2504,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>29.55</v>
+        <v>36.25</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2626,7 +2515,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>29.6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2637,7 +2526,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>12.15</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2648,7 +2537,7 @@
         <v>102</v>
       </c>
       <c r="C102">
-        <v>18.9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2659,7 +2548,7 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>29.85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2670,7 +2559,7 @@
         <v>104</v>
       </c>
       <c r="C104">
-        <v>18.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2681,7 +2570,7 @@
         <v>105</v>
       </c>
       <c r="C105">
-        <v>21</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2692,7 +2581,7 @@
         <v>106</v>
       </c>
       <c r="C106">
-        <v>35.45</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2703,7 +2592,7 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>42.15</v>
+        <v>46.25</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2714,7 +2603,7 @@
         <v>108</v>
       </c>
       <c r="C108">
-        <v>23.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2725,7 +2614,7 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>35.5</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2736,7 +2625,7 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>32.25</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2747,7 +2636,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>24.9</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2758,7 +2647,7 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>25.25</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2769,7 +2658,7 @@
         <v>113</v>
       </c>
       <c r="C113">
-        <v>16.75</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2780,7 +2669,7 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>31.9</v>
+        <v>28.25</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2791,7 +2680,7 @@
         <v>115</v>
       </c>
       <c r="C115">
-        <v>30.35</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2802,7 +2691,7 @@
         <v>116</v>
       </c>
       <c r="C116">
-        <v>17.75</v>
+        <v>36.25</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2813,7 +2702,7 @@
         <v>117</v>
       </c>
       <c r="C117">
-        <v>18.05</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2824,7 +2713,7 @@
         <v>118</v>
       </c>
       <c r="C118">
-        <v>34.3</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2835,7 +2724,7 @@
         <v>119</v>
       </c>
       <c r="C119">
-        <v>60.5</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2846,7 +2735,7 @@
         <v>120</v>
       </c>
       <c r="C120">
-        <v>26</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2857,7 +2746,7 @@
         <v>121</v>
       </c>
       <c r="C121">
-        <v>18.25</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2868,7 +2757,7 @@
         <v>122</v>
       </c>
       <c r="C122">
-        <v>30.5</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2879,7 +2768,7 @@
         <v>123</v>
       </c>
       <c r="C123">
-        <v>17.65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2890,7 +2779,7 @@
         <v>124</v>
       </c>
       <c r="C124">
-        <v>25.85</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2901,7 +2790,7 @@
         <v>125</v>
       </c>
       <c r="C125">
-        <v>30.45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2912,7 +2801,7 @@
         <v>126</v>
       </c>
       <c r="C126">
-        <v>13.25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2923,7 +2812,7 @@
         <v>127</v>
       </c>
       <c r="C127">
-        <v>12.35</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2934,7 +2823,7 @@
         <v>128</v>
       </c>
       <c r="C128">
-        <v>13.3</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2945,7 +2834,7 @@
         <v>129</v>
       </c>
       <c r="C129">
-        <v>58.25</v>
+        <v>46.25</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2956,7 +2845,7 @@
         <v>130</v>
       </c>
       <c r="C130">
-        <v>27.65</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2967,7 +2856,7 @@
         <v>131</v>
       </c>
       <c r="C131">
-        <v>21.75</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2978,7 +2867,7 @@
         <v>132</v>
       </c>
       <c r="C132">
-        <v>22</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2989,7 +2878,7 @@
         <v>133</v>
       </c>
       <c r="C133">
-        <v>23.65</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3000,7 +2889,7 @@
         <v>134</v>
       </c>
       <c r="C134">
-        <v>29.45</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3011,7 +2900,7 @@
         <v>135</v>
       </c>
       <c r="C135">
-        <v>24.5</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3022,7 +2911,7 @@
         <v>136</v>
       </c>
       <c r="C136">
-        <v>17</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3033,7 +2922,7 @@
         <v>137</v>
       </c>
       <c r="C137">
-        <v>19.25</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3044,7 +2933,7 @@
         <v>138</v>
       </c>
       <c r="C138">
-        <v>43.6</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3055,7 +2944,7 @@
         <v>139</v>
       </c>
       <c r="C139">
-        <v>28.3</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3066,7 +2955,7 @@
         <v>140</v>
       </c>
       <c r="C140">
-        <v>30.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3077,7 +2966,7 @@
         <v>141</v>
       </c>
       <c r="C141">
-        <v>41.45</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3088,7 +2977,7 @@
         <v>142</v>
       </c>
       <c r="C142">
-        <v>35.25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3099,7 +2988,7 @@
         <v>143</v>
       </c>
       <c r="C143">
-        <v>30.25</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3110,7 +2999,7 @@
         <v>144</v>
       </c>
       <c r="C144">
-        <v>45.75</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3121,7 +3010,7 @@
         <v>145</v>
       </c>
       <c r="C145">
-        <v>31.35</v>
+        <v>41.75</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3132,7 +3021,7 @@
         <v>146</v>
       </c>
       <c r="C146">
-        <v>28.35</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3143,7 +3032,7 @@
         <v>147</v>
       </c>
       <c r="C147">
-        <v>66.25</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3154,7 +3043,7 @@
         <v>148</v>
       </c>
       <c r="C148">
-        <v>47</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3165,7 +3054,7 @@
         <v>149</v>
       </c>
       <c r="C149">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3176,7 +3065,7 @@
         <v>150</v>
       </c>
       <c r="C150">
-        <v>33.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3187,7 +3076,7 @@
         <v>151</v>
       </c>
       <c r="C151">
-        <v>18.85</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3198,7 +3087,7 @@
         <v>152</v>
       </c>
       <c r="C152">
-        <v>11.05</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3209,7 +3098,7 @@
         <v>153</v>
       </c>
       <c r="C153">
-        <v>31.9</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3220,7 +3109,7 @@
         <v>154</v>
       </c>
       <c r="C154">
-        <v>21.65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3231,7 +3120,7 @@
         <v>155</v>
       </c>
       <c r="C155">
-        <v>22.55</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3242,7 +3131,7 @@
         <v>156</v>
       </c>
       <c r="C156">
-        <v>19.6</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3253,7 +3142,7 @@
         <v>157</v>
       </c>
       <c r="C157">
-        <v>28.15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3264,7 +3153,7 @@
         <v>158</v>
       </c>
       <c r="C158">
-        <v>21.65</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3275,7 +3164,7 @@
         <v>159</v>
       </c>
       <c r="C159">
-        <v>28.1</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3286,7 +3175,7 @@
         <v>160</v>
       </c>
       <c r="C160">
-        <v>36.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3297,7 +3186,7 @@
         <v>161</v>
       </c>
       <c r="C161">
-        <v>24.4</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3308,7 +3197,7 @@
         <v>162</v>
       </c>
       <c r="C162">
-        <v>51.25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3319,7 +3208,7 @@
         <v>163</v>
       </c>
       <c r="C163">
-        <v>16</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3330,7 +3219,7 @@
         <v>164</v>
       </c>
       <c r="C164">
-        <v>20.25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3341,7 +3230,7 @@
         <v>165</v>
       </c>
       <c r="C165">
-        <v>47.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3352,7 +3241,7 @@
         <v>166</v>
       </c>
       <c r="C166">
-        <v>33.25</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3363,7 +3252,7 @@
         <v>167</v>
       </c>
       <c r="C167">
-        <v>30.95</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3374,7 +3263,7 @@
         <v>168</v>
       </c>
       <c r="C168">
-        <v>15.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3385,7 +3274,7 @@
         <v>169</v>
       </c>
       <c r="C169">
-        <v>29.85</v>
+        <v>28.25</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3396,7 +3285,7 @@
         <v>170</v>
       </c>
       <c r="C170">
-        <v>14.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3407,7 +3296,7 @@
         <v>171</v>
       </c>
       <c r="C171">
-        <v>11.05</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3418,7 +3307,7 @@
         <v>172</v>
       </c>
       <c r="C172">
-        <v>29.5</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3429,7 +3318,7 @@
         <v>173</v>
       </c>
       <c r="C173">
-        <v>20.7</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3440,7 +3329,7 @@
         <v>174</v>
       </c>
       <c r="C174">
-        <v>23.05</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3451,7 +3340,7 @@
         <v>175</v>
       </c>
       <c r="C175">
-        <v>28.9</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3462,7 +3351,7 @@
         <v>176</v>
       </c>
       <c r="C176">
-        <v>20.05</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3473,7 +3362,7 @@
         <v>177</v>
       </c>
       <c r="C177">
-        <v>22.8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3484,7 +3373,7 @@
         <v>178</v>
       </c>
       <c r="C178">
-        <v>20.55</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3495,7 +3384,7 @@
         <v>179</v>
       </c>
       <c r="C179">
-        <v>53.25</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3506,7 +3395,7 @@
         <v>180</v>
       </c>
       <c r="C180">
-        <v>20.25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3517,7 +3406,7 @@
         <v>181</v>
       </c>
       <c r="C181">
-        <v>27.8</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3528,7 +3417,7 @@
         <v>182</v>
       </c>
       <c r="C182">
-        <v>19.7</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3539,7 +3428,7 @@
         <v>183</v>
       </c>
       <c r="C183">
-        <v>53.35</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3550,7 +3439,7 @@
         <v>184</v>
       </c>
       <c r="C184">
-        <v>23.6</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3561,7 +3450,7 @@
         <v>185</v>
       </c>
       <c r="C185">
-        <v>62</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3572,7 +3461,7 @@
         <v>186</v>
       </c>
       <c r="C186">
-        <v>12.9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3583,7 +3472,7 @@
         <v>187</v>
       </c>
       <c r="C187">
-        <v>32.95</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3594,7 +3483,7 @@
         <v>188</v>
       </c>
       <c r="C188">
-        <v>41.7</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3605,7 +3494,7 @@
         <v>189</v>
       </c>
       <c r="C189">
-        <v>33.85</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3616,7 +3505,7 @@
         <v>190</v>
       </c>
       <c r="C190">
-        <v>29.45</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3627,7 +3516,7 @@
         <v>191</v>
       </c>
       <c r="C191">
-        <v>22.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3638,7 +3527,7 @@
         <v>192</v>
       </c>
       <c r="C192">
-        <v>10.65</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3649,7 +3538,7 @@
         <v>193</v>
       </c>
       <c r="C193">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3660,7 +3549,7 @@
         <v>194</v>
       </c>
       <c r="C194">
-        <v>41.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3671,7 +3560,7 @@
         <v>195</v>
       </c>
       <c r="C195">
-        <v>26.5</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3682,7 +3571,7 @@
         <v>196</v>
       </c>
       <c r="C196">
-        <v>39.7</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3693,7 +3582,7 @@
         <v>197</v>
       </c>
       <c r="C197">
-        <v>33.05</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3704,7 +3593,7 @@
         <v>198</v>
       </c>
       <c r="C198">
-        <v>43.05</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3715,7 +3604,7 @@
         <v>199</v>
       </c>
       <c r="C199">
-        <v>25.65</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3726,7 +3615,7 @@
         <v>200</v>
       </c>
       <c r="C200">
-        <v>44.3</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3737,7 +3626,7 @@
         <v>201</v>
       </c>
       <c r="C201">
-        <v>5.65</v>
+        <v>28.25</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3748,7 +3637,7 @@
         <v>202</v>
       </c>
       <c r="C202">
-        <v>55.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3759,7 +3648,7 @@
         <v>203</v>
       </c>
       <c r="C203">
-        <v>23.65</v>
+        <v>63.75</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3770,7 +3659,7 @@
         <v>204</v>
       </c>
       <c r="C204">
-        <v>38.55</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3781,7 +3670,7 @@
         <v>205</v>
       </c>
       <c r="C205">
-        <v>17.8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3792,7 +3681,7 @@
         <v>206</v>
       </c>
       <c r="C206">
-        <v>15.4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3803,7 +3692,7 @@
         <v>207</v>
       </c>
       <c r="C207">
-        <v>27.15</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3814,7 +3703,7 @@
         <v>208</v>
       </c>
       <c r="C208">
-        <v>47.75</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3825,7 +3714,7 @@
         <v>209</v>
       </c>
       <c r="C209">
-        <v>25.1</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3836,7 +3725,7 @@
         <v>210</v>
       </c>
       <c r="C210">
-        <v>33.25</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3847,7 +3736,7 @@
         <v>211</v>
       </c>
       <c r="C211">
-        <v>15.5</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3858,7 +3747,7 @@
         <v>212</v>
       </c>
       <c r="C212">
-        <v>29.75</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3869,7 +3758,7 @@
         <v>213</v>
       </c>
       <c r="C213">
-        <v>43.65</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3880,7 +3769,7 @@
         <v>214</v>
       </c>
       <c r="C214">
-        <v>16</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3891,7 +3780,7 @@
         <v>215</v>
       </c>
       <c r="C215">
-        <v>58.1</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3902,7 +3791,7 @@
         <v>216</v>
       </c>
       <c r="C216">
-        <v>44.4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3913,7 +3802,7 @@
         <v>217</v>
       </c>
       <c r="C217">
-        <v>62.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3924,7 +3813,7 @@
         <v>218</v>
       </c>
       <c r="C218">
-        <v>13</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3935,7 +3824,7 @@
         <v>219</v>
       </c>
       <c r="C219">
-        <v>65.25</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3946,7 +3835,7 @@
         <v>220</v>
       </c>
       <c r="C220">
-        <v>52.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3957,7 +3846,7 @@
         <v>221</v>
       </c>
       <c r="C221">
-        <v>38.5</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3968,7 +3857,7 @@
         <v>222</v>
       </c>
       <c r="C222">
-        <v>22.8</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3979,7 +3868,7 @@
         <v>223</v>
       </c>
       <c r="C223">
-        <v>42.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3990,7 +3879,7 @@
         <v>224</v>
       </c>
       <c r="C224">
-        <v>72</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4001,7 +3890,7 @@
         <v>225</v>
       </c>
       <c r="C225">
-        <v>60</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4012,7 +3901,7 @@
         <v>226</v>
       </c>
       <c r="C226">
-        <v>65.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4023,7 +3912,7 @@
         <v>227</v>
       </c>
       <c r="C227">
-        <v>13.35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4034,7 +3923,7 @@
         <v>228</v>
       </c>
       <c r="C228">
-        <v>45.5</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4045,7 +3934,7 @@
         <v>229</v>
       </c>
       <c r="C229">
-        <v>60</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4056,7 +3945,7 @@
         <v>230</v>
       </c>
       <c r="C230">
-        <v>19.15</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4067,7 +3956,7 @@
         <v>231</v>
       </c>
       <c r="C231">
-        <v>30.55</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4078,7 +3967,7 @@
         <v>232</v>
       </c>
       <c r="C232">
-        <v>9.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4089,7 +3978,7 @@
         <v>233</v>
       </c>
       <c r="C233">
-        <v>36.55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4100,7 +3989,7 @@
         <v>234</v>
       </c>
       <c r="C234">
-        <v>38.3</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4111,7 +4000,7 @@
         <v>235</v>
       </c>
       <c r="C235">
-        <v>60.75</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4122,7 +4011,7 @@
         <v>236</v>
       </c>
       <c r="C236">
-        <v>16.8</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4133,7 +4022,7 @@
         <v>237</v>
       </c>
       <c r="C237">
-        <v>30.85</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4144,7 +4033,7 @@
         <v>238</v>
       </c>
       <c r="C238">
-        <v>20.75</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4155,7 +4044,7 @@
         <v>239</v>
       </c>
       <c r="C239">
-        <v>27.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4166,7 +4055,7 @@
         <v>240</v>
       </c>
       <c r="C240">
-        <v>7.65</v>
+        <v>65</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4177,7 +4066,7 @@
         <v>241</v>
       </c>
       <c r="C241">
-        <v>37.55</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4188,7 +4077,7 @@
         <v>242</v>
       </c>
       <c r="C242">
-        <v>17.25</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4199,7 +4088,7 @@
         <v>243</v>
       </c>
       <c r="C243">
-        <v>16.9</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4210,7 +4099,7 @@
         <v>244</v>
       </c>
       <c r="C244">
-        <v>19.75</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4221,7 +4110,7 @@
         <v>245</v>
       </c>
       <c r="C245">
-        <v>16</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4232,7 +4121,7 @@
         <v>246</v>
       </c>
       <c r="C246">
-        <v>32.75</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4243,7 +4132,7 @@
         <v>247</v>
       </c>
       <c r="C247">
-        <v>29.9</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4254,7 +4143,7 @@
         <v>248</v>
       </c>
       <c r="C248">
-        <v>44.75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4265,7 +4154,7 @@
         <v>249</v>
       </c>
       <c r="C249">
-        <v>17.7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4276,7 +4165,7 @@
         <v>250</v>
       </c>
       <c r="C250">
-        <v>6.25</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4287,7 +4176,7 @@
         <v>251</v>
       </c>
       <c r="C251">
-        <v>7.25</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4298,7 +4187,7 @@
         <v>252</v>
       </c>
       <c r="C252">
-        <v>29.25</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4309,7 +4198,7 @@
         <v>253</v>
       </c>
       <c r="C253">
-        <v>27.4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4320,7 +4209,7 @@
         <v>254</v>
       </c>
       <c r="C254">
-        <v>35.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4331,7 +4220,7 @@
         <v>255</v>
       </c>
       <c r="C255">
-        <v>20.05</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4342,7 +4231,7 @@
         <v>256</v>
       </c>
       <c r="C256">
-        <v>15.5</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4353,7 +4242,7 @@
         <v>257</v>
       </c>
       <c r="C257">
-        <v>26.65</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4364,7 +4253,7 @@
         <v>258</v>
       </c>
       <c r="C258">
-        <v>18.25</v>
+        <v>36.25</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4375,7 +4264,7 @@
         <v>259</v>
       </c>
       <c r="C259">
-        <v>24.65</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4386,7 +4275,7 @@
         <v>260</v>
       </c>
       <c r="C260">
-        <v>28.55</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4397,7 +4286,7 @@
         <v>261</v>
       </c>
       <c r="C261">
-        <v>17.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4408,7 +4297,7 @@
         <v>262</v>
       </c>
       <c r="C262">
-        <v>29.05</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4419,7 +4308,7 @@
         <v>263</v>
       </c>
       <c r="C263">
-        <v>44</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4430,7 +4319,7 @@
         <v>264</v>
       </c>
       <c r="C264">
-        <v>23.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4441,7 +4330,7 @@
         <v>265</v>
       </c>
       <c r="C265">
-        <v>46.75</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4452,7 +4341,7 @@
         <v>266</v>
       </c>
       <c r="C266">
-        <v>24.65</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4463,7 +4352,7 @@
         <v>267</v>
       </c>
       <c r="C267">
-        <v>47.5</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4474,7 +4363,7 @@
         <v>268</v>
       </c>
       <c r="C268">
-        <v>36</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4485,7 +4374,7 @@
         <v>269</v>
       </c>
       <c r="C269">
-        <v>12.75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4496,7 +4385,7 @@
         <v>270</v>
       </c>
       <c r="C270">
-        <v>7.6</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4507,7 +4396,7 @@
         <v>271</v>
       </c>
       <c r="C271">
-        <v>26.4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4518,7 +4407,7 @@
         <v>272</v>
       </c>
       <c r="C272">
-        <v>15.5</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4529,7 +4418,7 @@
         <v>273</v>
       </c>
       <c r="C273">
-        <v>4.85</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4540,7 +4429,7 @@
         <v>274</v>
       </c>
       <c r="C274">
-        <v>9.15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4551,7 +4440,7 @@
         <v>275</v>
       </c>
       <c r="C275">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4562,7 +4451,7 @@
         <v>276</v>
       </c>
       <c r="C276">
-        <v>30.5</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4573,7 +4462,7 @@
         <v>277</v>
       </c>
       <c r="C277">
-        <v>43</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4584,7 +4473,7 @@
         <v>278</v>
       </c>
       <c r="C278">
-        <v>14.55</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4595,7 +4484,7 @@
         <v>279</v>
       </c>
       <c r="C279">
-        <v>47.75</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4606,7 +4495,7 @@
         <v>280</v>
       </c>
       <c r="C280">
-        <v>13.6</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4617,7 +4506,7 @@
         <v>281</v>
       </c>
       <c r="C281">
-        <v>49.5</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4628,7 +4517,7 @@
         <v>282</v>
       </c>
       <c r="C282">
-        <v>8.85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4639,7 +4528,7 @@
         <v>283</v>
       </c>
       <c r="C283">
-        <v>53</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4650,7 +4539,7 @@
         <v>284</v>
       </c>
       <c r="C284">
-        <v>47.25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4661,7 +4550,7 @@
         <v>285</v>
       </c>
       <c r="C285">
-        <v>59.5</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4672,7 +4561,7 @@
         <v>286</v>
       </c>
       <c r="C286">
-        <v>17.95</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4683,7 +4572,7 @@
         <v>287</v>
       </c>
       <c r="C287">
-        <v>12.75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4694,7 +4583,7 @@
         <v>288</v>
       </c>
       <c r="C288">
-        <v>30.4</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4705,7 +4594,7 @@
         <v>289</v>
       </c>
       <c r="C289">
-        <v>23.25</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4716,7 +4605,7 @@
         <v>290</v>
       </c>
       <c r="C290">
-        <v>20.45</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4727,7 +4616,7 @@
         <v>291</v>
       </c>
       <c r="C291">
-        <v>25.75</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4738,7 +4627,7 @@
         <v>292</v>
       </c>
       <c r="C292">
-        <v>33.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4749,7 +4638,7 @@
         <v>293</v>
       </c>
       <c r="C293">
-        <v>7</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4760,7 +4649,7 @@
         <v>294</v>
       </c>
       <c r="C294">
-        <v>14.6</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4771,7 +4660,7 @@
         <v>295</v>
       </c>
       <c r="C295">
-        <v>35.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4782,7 +4671,7 @@
         <v>296</v>
       </c>
       <c r="C296">
-        <v>21.05</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4793,7 +4682,7 @@
         <v>297</v>
       </c>
       <c r="C297">
-        <v>41.25</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -4804,7 +4693,7 @@
         <v>298</v>
       </c>
       <c r="C298">
-        <v>33</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4815,7 +4704,7 @@
         <v>299</v>
       </c>
       <c r="C299">
-        <v>22.65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4826,7 +4715,7 @@
         <v>300</v>
       </c>
       <c r="C300">
-        <v>31.75</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4837,7 +4726,7 @@
         <v>301</v>
       </c>
       <c r="C301">
-        <v>10.4</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4848,7 +4737,7 @@
         <v>302</v>
       </c>
       <c r="C302">
-        <v>12.45</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4859,7 +4748,7 @@
         <v>303</v>
       </c>
       <c r="C303">
-        <v>11.4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4870,7 +4759,7 @@
         <v>304</v>
       </c>
       <c r="C304">
-        <v>10.4</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -4881,7 +4770,7 @@
         <v>305</v>
       </c>
       <c r="C305">
-        <v>21.8</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4892,7 +4781,7 @@
         <v>306</v>
       </c>
       <c r="C306">
-        <v>12</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -4903,7 +4792,7 @@
         <v>307</v>
       </c>
       <c r="C307">
-        <v>17.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4914,7 +4803,7 @@
         <v>308</v>
       </c>
       <c r="C308">
-        <v>30.4</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4925,7 +4814,7 @@
         <v>309</v>
       </c>
       <c r="C309">
-        <v>32.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4936,7 +4825,7 @@
         <v>310</v>
       </c>
       <c r="C310">
-        <v>47.75</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4947,7 +4836,7 @@
         <v>311</v>
       </c>
       <c r="C311">
-        <v>28.15</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4958,7 +4847,7 @@
         <v>312</v>
       </c>
       <c r="C312">
-        <v>22.2</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4969,7 +4858,7 @@
         <v>313</v>
       </c>
       <c r="C313">
-        <v>19.55</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -4980,7 +4869,7 @@
         <v>314</v>
       </c>
       <c r="C314">
-        <v>50.65</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4991,7 +4880,7 @@
         <v>315</v>
       </c>
       <c r="C315">
-        <v>57.35</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5002,7 +4891,7 @@
         <v>316</v>
       </c>
       <c r="C316">
-        <v>31.8</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5013,7 +4902,7 @@
         <v>317</v>
       </c>
       <c r="C317">
-        <v>24</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5024,7 +4913,7 @@
         <v>318</v>
       </c>
       <c r="C318">
-        <v>17.65</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5035,7 +4924,7 @@
         <v>319</v>
       </c>
       <c r="C319">
-        <v>16.5</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5046,7 +4935,7 @@
         <v>320</v>
       </c>
       <c r="C320">
-        <v>14.25</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5057,7 +4946,7 @@
         <v>321</v>
       </c>
       <c r="C321">
-        <v>9.75</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5068,7 +4957,7 @@
         <v>322</v>
       </c>
       <c r="C322">
-        <v>31.05</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5079,7 +4968,7 @@
         <v>323</v>
       </c>
       <c r="C323">
-        <v>25.5</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5090,7 +4979,7 @@
         <v>324</v>
       </c>
       <c r="C324">
-        <v>27.3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5101,7 +4990,7 @@
         <v>325</v>
       </c>
       <c r="C325">
-        <v>40</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5112,7 +5001,7 @@
         <v>326</v>
       </c>
       <c r="C326">
-        <v>31.35</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5123,7 +5012,7 @@
         <v>327</v>
       </c>
       <c r="C327">
-        <v>34.6</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5134,7 +5023,7 @@
         <v>328</v>
       </c>
       <c r="C328">
-        <v>8.65</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5145,7 +5034,7 @@
         <v>329</v>
       </c>
       <c r="C329">
-        <v>26.6</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5156,7 +5045,7 @@
         <v>330</v>
       </c>
       <c r="C330">
-        <v>17.55</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5167,7 +5056,7 @@
         <v>331</v>
       </c>
       <c r="C331">
-        <v>29.6</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5178,7 +5067,7 @@
         <v>332</v>
       </c>
       <c r="C332">
-        <v>28.95</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5189,7 +5078,7 @@
         <v>333</v>
       </c>
       <c r="C333">
-        <v>45.05</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5200,7 +5089,7 @@
         <v>334</v>
       </c>
       <c r="C334">
-        <v>17.7</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5211,7 +5100,7 @@
         <v>335</v>
       </c>
       <c r="C335">
-        <v>19</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5222,7 +5111,7 @@
         <v>336</v>
       </c>
       <c r="C336">
-        <v>19.5</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5233,7 +5122,7 @@
         <v>337</v>
       </c>
       <c r="C337">
-        <v>7.75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5244,7 +5133,7 @@
         <v>338</v>
       </c>
       <c r="C338">
-        <v>23.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5255,7 +5144,7 @@
         <v>339</v>
       </c>
       <c r="C339">
-        <v>16</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5266,7 +5155,7 @@
         <v>340</v>
       </c>
       <c r="C340">
-        <v>21</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5277,7 +5166,7 @@
         <v>341</v>
       </c>
       <c r="C341">
-        <v>5.75</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5288,7 +5177,7 @@
         <v>342</v>
       </c>
       <c r="C342">
-        <v>43.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5299,7 +5188,7 @@
         <v>343</v>
       </c>
       <c r="C343">
-        <v>22.4</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5310,7 +5199,7 @@
         <v>344</v>
       </c>
       <c r="C344">
-        <v>48</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5321,7 +5210,7 @@
         <v>345</v>
       </c>
       <c r="C345">
-        <v>23.6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5332,7 +5221,7 @@
         <v>346</v>
       </c>
       <c r="C346">
-        <v>17.3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5343,414 +5232,7 @@
         <v>347</v>
       </c>
       <c r="C347">
-        <v>22.75</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348" s="1">
-        <v>346</v>
-      </c>
-      <c r="B348" t="s">
-        <v>348</v>
-      </c>
-      <c r="C348">
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="A349" s="1">
-        <v>347</v>
-      </c>
-      <c r="B349" t="s">
-        <v>349</v>
-      </c>
-      <c r="C349">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="A350" s="1">
-        <v>348</v>
-      </c>
-      <c r="B350" t="s">
-        <v>350</v>
-      </c>
-      <c r="C350">
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="A351" s="1">
-        <v>349</v>
-      </c>
-      <c r="B351" t="s">
-        <v>351</v>
-      </c>
-      <c r="C351">
-        <v>30.65</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352" s="1">
-        <v>350</v>
-      </c>
-      <c r="B352" t="s">
-        <v>352</v>
-      </c>
-      <c r="C352">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
-      <c r="A353" s="1">
-        <v>351</v>
-      </c>
-      <c r="B353" t="s">
-        <v>353</v>
-      </c>
-      <c r="C353">
-        <v>51.25</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
-      <c r="A354" s="1">
-        <v>352</v>
-      </c>
-      <c r="B354" t="s">
-        <v>354</v>
-      </c>
-      <c r="C354">
-        <v>47.75</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
-      <c r="A355" s="1">
-        <v>353</v>
-      </c>
-      <c r="B355" t="s">
-        <v>355</v>
-      </c>
-      <c r="C355">
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
-      <c r="A356" s="1">
-        <v>354</v>
-      </c>
-      <c r="B356" t="s">
-        <v>356</v>
-      </c>
-      <c r="C356">
-        <v>31.15</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
-      <c r="A357" s="1">
-        <v>355</v>
-      </c>
-      <c r="B357" t="s">
-        <v>357</v>
-      </c>
-      <c r="C357">
-        <v>28.8</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
-      <c r="A358" s="1">
-        <v>356</v>
-      </c>
-      <c r="B358" t="s">
-        <v>358</v>
-      </c>
-      <c r="C358">
-        <v>24.8</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
-      <c r="A359" s="1">
-        <v>357</v>
-      </c>
-      <c r="B359" t="s">
-        <v>359</v>
-      </c>
-      <c r="C359">
-        <v>28.85</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
-      <c r="A360" s="1">
-        <v>358</v>
-      </c>
-      <c r="B360" t="s">
-        <v>360</v>
-      </c>
-      <c r="C360">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
-      <c r="A361" s="1">
-        <v>359</v>
-      </c>
-      <c r="B361" t="s">
-        <v>361</v>
-      </c>
-      <c r="C361">
-        <v>27.55</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
-      <c r="A362" s="1">
-        <v>360</v>
-      </c>
-      <c r="B362" t="s">
-        <v>362</v>
-      </c>
-      <c r="C362">
-        <v>31.15</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
-      <c r="A363" s="1">
-        <v>361</v>
-      </c>
-      <c r="B363" t="s">
-        <v>363</v>
-      </c>
-      <c r="C363">
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="A364" s="1">
-        <v>362</v>
-      </c>
-      <c r="B364" t="s">
-        <v>364</v>
-      </c>
-      <c r="C364">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
-      <c r="A365" s="1">
-        <v>363</v>
-      </c>
-      <c r="B365" t="s">
-        <v>365</v>
-      </c>
-      <c r="C365">
-        <v>28.45</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
-      <c r="A366" s="1">
-        <v>364</v>
-      </c>
-      <c r="B366" t="s">
-        <v>366</v>
-      </c>
-      <c r="C366">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
-      <c r="A367" s="1">
-        <v>365</v>
-      </c>
-      <c r="B367" t="s">
-        <v>367</v>
-      </c>
-      <c r="C367">
-        <v>42.75</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
-      <c r="A368" s="1">
-        <v>366</v>
-      </c>
-      <c r="B368" t="s">
-        <v>368</v>
-      </c>
-      <c r="C368">
-        <v>42.4</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
-      <c r="A369" s="1">
-        <v>367</v>
-      </c>
-      <c r="B369" t="s">
-        <v>369</v>
-      </c>
-      <c r="C369">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3">
-      <c r="A370" s="1">
-        <v>368</v>
-      </c>
-      <c r="B370" t="s">
-        <v>370</v>
-      </c>
-      <c r="C370">
-        <v>8.449999999999999</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
-      <c r="A371" s="1">
-        <v>369</v>
-      </c>
-      <c r="B371" t="s">
-        <v>371</v>
-      </c>
-      <c r="C371">
-        <v>28.85</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3">
-      <c r="A372" s="1">
-        <v>370</v>
-      </c>
-      <c r="B372" t="s">
-        <v>372</v>
-      </c>
-      <c r="C372">
-        <v>17.15</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
-      <c r="A373" s="1">
-        <v>371</v>
-      </c>
-      <c r="B373" t="s">
-        <v>373</v>
-      </c>
-      <c r="C373">
-        <v>23.65</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3">
-      <c r="A374" s="1">
-        <v>372</v>
-      </c>
-      <c r="B374" t="s">
-        <v>374</v>
-      </c>
-      <c r="C374">
-        <v>30.1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
-      <c r="A375" s="1">
-        <v>373</v>
-      </c>
-      <c r="B375" t="s">
-        <v>375</v>
-      </c>
-      <c r="C375">
-        <v>32.75</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
-      <c r="A376" s="1">
-        <v>374</v>
-      </c>
-      <c r="B376" t="s">
-        <v>376</v>
-      </c>
-      <c r="C376">
-        <v>32.9</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3">
-      <c r="A377" s="1">
-        <v>375</v>
-      </c>
-      <c r="B377" t="s">
-        <v>377</v>
-      </c>
-      <c r="C377">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3">
-      <c r="A378" s="1">
-        <v>376</v>
-      </c>
-      <c r="B378" t="s">
-        <v>378</v>
-      </c>
-      <c r="C378">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
-      <c r="A379" s="1">
-        <v>377</v>
-      </c>
-      <c r="B379" t="s">
-        <v>379</v>
-      </c>
-      <c r="C379">
-        <v>30.7</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3">
-      <c r="A380" s="1">
-        <v>378</v>
-      </c>
-      <c r="B380" t="s">
-        <v>380</v>
-      </c>
-      <c r="C380">
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
-      <c r="A381" s="1">
-        <v>379</v>
-      </c>
-      <c r="B381" t="s">
-        <v>381</v>
-      </c>
-      <c r="C381">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
-      <c r="A382" s="1">
-        <v>380</v>
-      </c>
-      <c r="B382" t="s">
-        <v>382</v>
-      </c>
-      <c r="C382">
-        <v>57.25</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
-      <c r="A383" s="1">
-        <v>381</v>
-      </c>
-      <c r="B383" t="s">
-        <v>383</v>
-      </c>
-      <c r="C383">
-        <v>48.25</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
-      <c r="A384" s="1">
-        <v>382</v>
-      </c>
-      <c r="B384" t="s">
-        <v>384</v>
-      </c>
-      <c r="C384">
-        <v>48.25</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
